--- a/09_Sep/DGAIGAT_Septiembre_DPCIIT.xlsx
+++ b/09_Sep/DGAIGAT_Septiembre_DPCIIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\09_Sep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2CDF7-382C-4F1D-813A-99F5663424B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC936D2-A27B-4DB3-8378-147A8CF401D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15346" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="septiembre" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="389">
   <si>
     <t>Dirección de Cartografía y Catastro</t>
   </si>
@@ -1217,31 +1217,10 @@
     <t>Se continúa con el análisis del documento con la propuesta para incorporar los resultados del Índice Territoral Urbano - Rural (ITUR) en el aplicativo correspondiente dentro del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
   </si>
   <si>
-    <t>Se actualizó la información en el Sitio de Intercambio del CTEIDRU, específicamente los registros de nuevos nombramientos de Vocales e Invitados Permanentes (titulares y suplentes) de los distintos cargos de los integrantes del Comité. Específicamente se actualizaron los registros del Vocal y Suplente de la Secretaría de Marina (SEMAR), asímismo se solicitó a la DGCSNIEG la actualización del directorio del CTEIDRU en el Sitio de Intercambio del SNIEG.</t>
-  </si>
-  <si>
-    <t>Se recopiló y capturó la información necesaria para integrar el Informe Anual de Actividades 2023 del CTEIDRU en el Sistema de Avance de las Actividades de los Comités Técnicos Especializados (SIAACTE), con base en minutas, documentación técnica, listas de asistencia, agendas, presentaciones, instrumentos programáticos, entre otros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se brindó apoyo a la Secretaría de Actas en la logística para desarrollar la Primera Sesión Ordinaria 2024 del Comité. Se brindó apoyo a la Secretaría Técnica para elaborar los materiales y presentar tres temas en dicha sesión. </t>
-  </si>
-  <si>
-    <t>Se actualizó la información en el Sitio de Intercambio del CTEIDRU, específicamente los registros de nuevos nombramientos de Vocales e Invitados Permanentes (titulares y suplentes) de los distintos cargos de los integrantes del Comité.</t>
-  </si>
-  <si>
-    <t>Se brinda seguimiento puntual a los acuerdos pendientes del Comité. Previo a la Primera Sesión Ordinaria 2024, se tiene pendiente el siguiente acuerdo CTEIDRU/2.5/2021, para el cual se registró el siguiente avance para continuar en proceso de atención: 
-SEDATU / El 20 de septiembre del 2023 se formalizó la firma del Convenio Específico de Colaboración SEDATU- INEGI.
-Se han desarrollado dos reuniones de coordinación (19 de febrero y 04 de marzo) entre la SEDATU y el INEGI para coordinar las actividades para cumplir los compromisos establecidos en el convenio.
-SEMARNAT / El pasado 12 de marzo se llevó a cabo una reunión entre la SEMARNAT y el INEGI para conocer a mayor detalle el Subsistema de Información para el Ordenamiento Ecológico (SIORE), con la finalidad de ir definiendo el mecanismo para vincularlo al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano (SCIEGOTDU) del INEGI/SNIEG.</t>
-  </si>
-  <si>
     <t>A partir de la reunión de trabajo sostenida con la Dirección de Soluciones Geomáticas con el fin de retomar el desarrollo del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Urbano, se prepara una presentación de retroalimentación para que el sistema, módulos y funcionalidades cumplan cabalmente con el requerimiento solicitado.</t>
   </si>
   <si>
     <t>Se realizaron algunas mejoras a los archivos vectoriales generados para la información del Índice Territorial Urbano - Rural (ITUR), asi mismo, continuan las pruebas de validación de la información del Índice Territorial Urbano - Rural (ITUR) que próximamente será publicada, con el fin de verificar que contenga la estructura  adecuada para su incorporación al módulo que mostrará los resultados de esta publicación dentro del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
-  </si>
-  <si>
-    <t>Se comenzó con la recopilación de información necesaria para integrar el Informe Anual de Actividades 2025 del CTEIDRU en el Sistema de Avance de las Actividades de los Comités Técnicos Especializados (SIAACTE), con base en minutas, documentación técnica, listas de asistencia, agendas, presentaciones, instrumentos programáticos, entre otros.</t>
   </si>
   <si>
     <t xml:space="preserve">Se realizó la logística para desarrollar la Segunda Sesión Ordinaria 2024 del Comité. Se brinda apoyo a las Secretarías de Actas y Técnica en elaborar el orden del día, elaborar las presentaciones y lanzar la convocatoria de la sesión. </t>
@@ -1254,6 +1233,12 @@
   </si>
   <si>
     <t>Se detectó la publicación: Censo Nacional de Sistemas Penitenciarios Estatales (CNSIPEE) 2024</t>
+  </si>
+  <si>
+    <t>Se continúa con la recopilación de información necesaria para integrar el Informe Anual de Actividades 2024 del CTEIDRU en el Sistema de Avance de las Actividades de los Comités Técnicos Especializados (SIAACTE), con base a la información generada de las dos sesiones ordinarias realizadas durante el año la cual consiste en: minutas, documentación técnica, listas de asistencia, agendas, presentaciones, instrumentos programáticos, entre otros.</t>
+  </si>
+  <si>
+    <t>Se comenzó con la logística en la  preparación de los nuevos oficios para la designación de los Vocales Titulares y Suplentes e Invitados Permanentes por el nuevo cambio de gobierno en la  administración federal.</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,12 +1611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1860,7 +1839,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2441,30 +2420,233 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,15 +2674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2531,21 +2704,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2570,205 +2728,17 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2779,26 +2749,44 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4289,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G198" sqref="G198:I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4333,11 +4321,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="291" t="s">
+      <c r="G3" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -4411,13 +4399,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="256" t="s">
+      <c r="A7" s="241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="237" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="132" t="s">
@@ -4441,9 +4429,9 @@
       <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="273"/>
-      <c r="B8" s="257"/>
-      <c r="C8" s="259"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="238"/>
       <c r="D8" s="103" t="s">
         <v>155</v>
       </c>
@@ -4451,20 +4439,20 @@
       <c r="F8" s="74">
         <v>1</v>
       </c>
-      <c r="G8" s="222" t="s">
+      <c r="G8" s="288" t="s">
         <v>367</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="224"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="290"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="25.5">
-      <c r="A9" s="273"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="259"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="238"/>
       <c r="D9" s="104" t="s">
         <v>156</v>
       </c>
@@ -4472,20 +4460,20 @@
       <c r="F9" s="74">
         <v>1</v>
       </c>
-      <c r="G9" s="222" t="s">
+      <c r="G9" s="288" t="s">
         <v>368</v>
       </c>
-      <c r="H9" s="245"/>
-      <c r="I9" s="246"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="25.5">
-      <c r="A10" s="273"/>
-      <c r="B10" s="257"/>
-      <c r="C10" s="259"/>
+      <c r="A10" s="242"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="238"/>
       <c r="D10" s="103" t="s">
         <v>324</v>
       </c>
@@ -4504,9 +4492,9 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="273"/>
-      <c r="B11" s="257"/>
-      <c r="C11" s="258" t="s">
+      <c r="A11" s="242"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="237" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="133" t="s">
@@ -4528,9 +4516,9 @@
       <c r="M11" s="144"/>
     </row>
     <row r="12" spans="1:17" ht="25.5">
-      <c r="A12" s="273"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="259"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="238"/>
       <c r="D12" s="114" t="s">
         <v>158</v>
       </c>
@@ -4538,20 +4526,20 @@
       <c r="F12" s="74">
         <v>1</v>
       </c>
-      <c r="G12" s="210" t="s">
+      <c r="G12" s="279" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="211"/>
-      <c r="I12" s="212"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="281"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="25.5">
-      <c r="A13" s="273"/>
-      <c r="B13" s="257"/>
-      <c r="C13" s="259"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="238"/>
       <c r="D13" s="114" t="s">
         <v>159</v>
       </c>
@@ -4559,18 +4547,18 @@
       <c r="F13" s="74">
         <v>1</v>
       </c>
-      <c r="G13" s="213"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="G13" s="282"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="284"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="273"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="259"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="238"/>
       <c r="D14" s="104" t="s">
         <v>160</v>
       </c>
@@ -4578,20 +4566,20 @@
       <c r="F14" s="74">
         <v>1</v>
       </c>
-      <c r="G14" s="216"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="218"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="286"/>
+      <c r="I14" s="287"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="27" customHeight="1">
-      <c r="A15" s="273"/>
-      <c r="B15" s="275" t="s">
+      <c r="A15" s="242"/>
+      <c r="B15" s="244" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="258" t="s">
+      <c r="C15" s="237" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="134" t="s">
@@ -4615,9 +4603,9 @@
       <c r="M15" s="144"/>
     </row>
     <row r="16" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A16" s="273"/>
-      <c r="B16" s="276"/>
-      <c r="C16" s="259"/>
+      <c r="A16" s="242"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="238"/>
       <c r="D16" s="114" t="s">
         <v>75</v>
       </c>
@@ -4636,9 +4624,9 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="25.5">
-      <c r="A17" s="273"/>
-      <c r="B17" s="276"/>
-      <c r="C17" s="259"/>
+      <c r="A17" s="242"/>
+      <c r="B17" s="245"/>
+      <c r="C17" s="238"/>
       <c r="D17" s="114" t="s">
         <v>76</v>
       </c>
@@ -4657,9 +4645,9 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="25.5">
-      <c r="A18" s="273"/>
-      <c r="B18" s="276"/>
-      <c r="C18" s="259"/>
+      <c r="A18" s="242"/>
+      <c r="B18" s="245"/>
+      <c r="C18" s="238"/>
       <c r="D18" s="114" t="s">
         <v>77</v>
       </c>
@@ -4678,9 +4666,9 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="25.5">
-      <c r="A19" s="273"/>
-      <c r="B19" s="276"/>
-      <c r="C19" s="259"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="114" t="s">
         <v>78</v>
       </c>
@@ -4699,9 +4687,9 @@
       <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="273"/>
-      <c r="B20" s="276"/>
-      <c r="C20" s="283" t="s">
+      <c r="A20" s="242"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="246" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="133" t="s">
@@ -4725,9 +4713,9 @@
       <c r="M20" s="144"/>
     </row>
     <row r="21" spans="1:13" ht="25.5">
-      <c r="A21" s="273"/>
-      <c r="B21" s="276"/>
-      <c r="C21" s="284"/>
+      <c r="A21" s="242"/>
+      <c r="B21" s="245"/>
+      <c r="C21" s="247"/>
       <c r="D21" s="114" t="s">
         <v>80</v>
       </c>
@@ -4746,9 +4734,9 @@
       <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A22" s="273"/>
-      <c r="B22" s="276"/>
-      <c r="C22" s="284"/>
+      <c r="A22" s="242"/>
+      <c r="B22" s="245"/>
+      <c r="C22" s="247"/>
       <c r="D22" s="114" t="s">
         <v>81</v>
       </c>
@@ -4767,9 +4755,9 @@
       <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="38.25">
-      <c r="A23" s="273"/>
-      <c r="B23" s="276"/>
-      <c r="C23" s="284"/>
+      <c r="A23" s="242"/>
+      <c r="B23" s="245"/>
+      <c r="C23" s="247"/>
       <c r="D23" s="114" t="s">
         <v>325</v>
       </c>
@@ -4788,9 +4776,9 @@
       <c r="M23" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="25.5">
-      <c r="A24" s="273"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="284"/>
+      <c r="A24" s="242"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="247"/>
       <c r="D24" s="114" t="s">
         <v>83</v>
       </c>
@@ -4809,9 +4797,9 @@
       <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A25" s="296"/>
-      <c r="B25" s="296"/>
-      <c r="C25" s="285"/>
+      <c r="A25" s="243"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="248"/>
       <c r="D25" s="104" t="s">
         <v>162</v>
       </c>
@@ -4830,13 +4818,13 @@
       <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="275" t="s">
+      <c r="A26" s="241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="278" t="s">
+      <c r="C26" s="239" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="134" t="s">
@@ -4860,9 +4848,9 @@
       <c r="M26" s="144"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="A27" s="273"/>
-      <c r="B27" s="276"/>
-      <c r="C27" s="297"/>
+      <c r="A27" s="242"/>
+      <c r="B27" s="245"/>
+      <c r="C27" s="250"/>
       <c r="D27" s="109" t="s">
         <v>85</v>
       </c>
@@ -4881,9 +4869,9 @@
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="A28" s="273"/>
-      <c r="B28" s="276"/>
-      <c r="C28" s="297"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="250"/>
       <c r="D28" s="109" t="s">
         <v>164</v>
       </c>
@@ -4901,10 +4889,10 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="273"/>
-      <c r="B29" s="276"/>
-      <c r="C29" s="297"/>
+    <row r="29" spans="1:13" ht="25.5">
+      <c r="A29" s="242"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="250"/>
       <c r="D29" s="109" t="s">
         <v>165</v>
       </c>
@@ -4923,9 +4911,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="273"/>
-      <c r="B30" s="276"/>
-      <c r="C30" s="258" t="s">
+      <c r="A30" s="242"/>
+      <c r="B30" s="245"/>
+      <c r="C30" s="237" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="134" t="s">
@@ -4949,9 +4937,9 @@
       <c r="M30" s="144"/>
     </row>
     <row r="31" spans="1:13" ht="25.5">
-      <c r="A31" s="273"/>
-      <c r="B31" s="276"/>
-      <c r="C31" s="259"/>
+      <c r="A31" s="242"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="238"/>
       <c r="D31" s="109" t="s">
         <v>292</v>
       </c>
@@ -4970,9 +4958,9 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="25.5">
-      <c r="A32" s="273"/>
-      <c r="B32" s="276"/>
-      <c r="C32" s="259"/>
+      <c r="A32" s="242"/>
+      <c r="B32" s="245"/>
+      <c r="C32" s="238"/>
       <c r="D32" s="109" t="s">
         <v>291</v>
       </c>
@@ -4991,9 +4979,9 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="38.25">
-      <c r="A33" s="273"/>
-      <c r="B33" s="276"/>
-      <c r="C33" s="259"/>
+      <c r="A33" s="242"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="238"/>
       <c r="D33" s="109" t="s">
         <v>360</v>
       </c>
@@ -5012,9 +5000,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="273"/>
-      <c r="B34" s="276"/>
-      <c r="C34" s="280" t="s">
+      <c r="A34" s="242"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="251" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="134" t="s">
@@ -5038,9 +5026,9 @@
       <c r="M34" s="144"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
-      <c r="A35" s="273"/>
-      <c r="B35" s="276"/>
-      <c r="C35" s="281"/>
+      <c r="A35" s="242"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="252"/>
       <c r="D35" s="113" t="s">
         <v>293</v>
       </c>
@@ -5059,9 +5047,9 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="273"/>
-      <c r="B36" s="276"/>
-      <c r="C36" s="281"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="252"/>
       <c r="D36" s="113" t="s">
         <v>294</v>
       </c>
@@ -5080,9 +5068,9 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A37" s="273"/>
-      <c r="B37" s="276"/>
-      <c r="C37" s="281"/>
+      <c r="A37" s="242"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="252"/>
       <c r="D37" s="113" t="s">
         <v>55</v>
       </c>
@@ -5101,9 +5089,9 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="273"/>
-      <c r="B38" s="276"/>
-      <c r="C38" s="282"/>
+      <c r="A38" s="242"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="253"/>
       <c r="D38" s="113" t="s">
         <v>295</v>
       </c>
@@ -5122,9 +5110,9 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1">
-      <c r="A39" s="273"/>
-      <c r="B39" s="276"/>
-      <c r="C39" s="258" t="s">
+      <c r="A39" s="242"/>
+      <c r="B39" s="245"/>
+      <c r="C39" s="237" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="134" t="s">
@@ -5148,9 +5136,9 @@
       <c r="M39" s="144"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="273"/>
-      <c r="B40" s="276"/>
-      <c r="C40" s="259"/>
+      <c r="A40" s="242"/>
+      <c r="B40" s="245"/>
+      <c r="C40" s="238"/>
       <c r="D40" s="109" t="s">
         <v>56</v>
       </c>
@@ -5158,20 +5146,20 @@
       <c r="F40" s="74">
         <v>1</v>
       </c>
-      <c r="G40" s="222" t="s">
+      <c r="G40" s="288" t="s">
         <v>369</v>
       </c>
-      <c r="H40" s="223"/>
-      <c r="I40" s="224"/>
+      <c r="H40" s="289"/>
+      <c r="I40" s="290"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="90"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="273"/>
-      <c r="B41" s="276"/>
-      <c r="C41" s="259"/>
+      <c r="A41" s="242"/>
+      <c r="B41" s="245"/>
+      <c r="C41" s="238"/>
       <c r="D41" s="109" t="s">
         <v>92</v>
       </c>
@@ -5190,45 +5178,45 @@
       <c r="M41" s="90"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="273"/>
-      <c r="B42" s="276"/>
-      <c r="C42" s="259"/>
+      <c r="A42" s="242"/>
+      <c r="B42" s="245"/>
+      <c r="C42" s="238"/>
       <c r="D42" s="109" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="178"/>
-      <c r="F42" s="225" t="s">
+      <c r="F42" s="291" t="s">
         <v>351</v>
       </c>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="227"/>
+      <c r="G42" s="292"/>
+      <c r="H42" s="292"/>
+      <c r="I42" s="293"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="90"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="273"/>
-      <c r="B43" s="276"/>
-      <c r="C43" s="259"/>
+      <c r="A43" s="242"/>
+      <c r="B43" s="245"/>
+      <c r="C43" s="238"/>
       <c r="D43" s="109" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="178"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="230"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="295"/>
+      <c r="H43" s="295"/>
+      <c r="I43" s="296"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="90"/>
     </row>
     <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="273"/>
-      <c r="B44" s="276"/>
-      <c r="C44" s="258" t="s">
+      <c r="A44" s="242"/>
+      <c r="B44" s="245"/>
+      <c r="C44" s="237" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="146" t="s">
@@ -5252,9 +5240,9 @@
       <c r="M44" s="144"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="273"/>
-      <c r="B45" s="276"/>
-      <c r="C45" s="259"/>
+      <c r="A45" s="242"/>
+      <c r="B45" s="245"/>
+      <c r="C45" s="238"/>
       <c r="D45" s="113" t="s">
         <v>333</v>
       </c>
@@ -5273,9 +5261,9 @@
       <c r="M45" s="90"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="273"/>
-      <c r="B46" s="276"/>
-      <c r="C46" s="259"/>
+      <c r="A46" s="242"/>
+      <c r="B46" s="245"/>
+      <c r="C46" s="238"/>
       <c r="D46" s="113" t="s">
         <v>361</v>
       </c>
@@ -5294,30 +5282,30 @@
       <c r="M46" s="90"/>
     </row>
     <row r="47" spans="1:13" ht="38.25">
-      <c r="A47" s="273"/>
-      <c r="B47" s="276"/>
-      <c r="C47" s="259"/>
+      <c r="A47" s="242"/>
+      <c r="B47" s="245"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="113" t="s">
         <v>172</v>
       </c>
       <c r="E47" s="180"/>
       <c r="F47" s="180"/>
-      <c r="G47" s="235" t="s">
+      <c r="G47" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="H47" s="235"/>
-      <c r="I47" s="236"/>
+      <c r="H47" s="219"/>
+      <c r="I47" s="220"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="90"/>
     </row>
     <row r="48" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A48" s="273"/>
-      <c r="B48" s="271" t="s">
+      <c r="A48" s="242"/>
+      <c r="B48" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="258" t="s">
+      <c r="C48" s="237" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="133" t="s">
@@ -5341,9 +5329,9 @@
       <c r="M48" s="144"/>
     </row>
     <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="273"/>
-      <c r="B49" s="271"/>
-      <c r="C49" s="259"/>
+      <c r="A49" s="242"/>
+      <c r="B49" s="270"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="113" t="s">
         <v>297</v>
       </c>
@@ -5362,9 +5350,9 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="38.25">
-      <c r="A50" s="273"/>
-      <c r="B50" s="271"/>
-      <c r="C50" s="259"/>
+      <c r="A50" s="242"/>
+      <c r="B50" s="270"/>
+      <c r="C50" s="238"/>
       <c r="D50" s="113" t="s">
         <v>296</v>
       </c>
@@ -5383,9 +5371,9 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="273"/>
-      <c r="B51" s="271"/>
-      <c r="C51" s="259"/>
+      <c r="A51" s="242"/>
+      <c r="B51" s="270"/>
+      <c r="C51" s="238"/>
       <c r="D51" s="113" t="s">
         <v>68</v>
       </c>
@@ -5404,11 +5392,11 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="273"/>
-      <c r="B52" s="256" t="s">
+      <c r="A52" s="242"/>
+      <c r="B52" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="258" t="s">
+      <c r="C52" s="237" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="133" t="s">
@@ -5432,9 +5420,9 @@
       <c r="M52" s="144"/>
     </row>
     <row r="53" spans="1:13" ht="25.5">
-      <c r="A53" s="273"/>
-      <c r="B53" s="257"/>
-      <c r="C53" s="259"/>
+      <c r="A53" s="242"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="238"/>
       <c r="D53" s="113" t="s">
         <v>300</v>
       </c>
@@ -5453,9 +5441,9 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="38.25">
-      <c r="A54" s="273"/>
-      <c r="B54" s="257"/>
-      <c r="C54" s="259"/>
+      <c r="A54" s="242"/>
+      <c r="B54" s="236"/>
+      <c r="C54" s="238"/>
       <c r="D54" s="109" t="s">
         <v>301</v>
       </c>
@@ -5474,9 +5462,9 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="25.5">
-      <c r="A55" s="273"/>
-      <c r="B55" s="257"/>
-      <c r="C55" s="259"/>
+      <c r="A55" s="242"/>
+      <c r="B55" s="236"/>
+      <c r="C55" s="238"/>
       <c r="D55" s="104" t="s">
         <v>302</v>
       </c>
@@ -5495,9 +5483,9 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="25.5">
-      <c r="A56" s="273"/>
-      <c r="B56" s="257"/>
-      <c r="C56" s="258" t="s">
+      <c r="A56" s="242"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="237" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="134" t="s">
@@ -5521,9 +5509,9 @@
       <c r="M56" s="93"/>
     </row>
     <row r="57" spans="1:13" ht="25.5">
-      <c r="A57" s="273"/>
-      <c r="B57" s="257"/>
-      <c r="C57" s="259"/>
+      <c r="A57" s="242"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="238"/>
       <c r="D57" s="104" t="s">
         <v>305</v>
       </c>
@@ -5542,68 +5530,68 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="273"/>
-      <c r="B58" s="257"/>
-      <c r="C58" s="259"/>
+      <c r="A58" s="242"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="238"/>
       <c r="D58" s="104" t="s">
         <v>306</v>
       </c>
       <c r="E58" s="181"/>
-      <c r="F58" s="304" t="s">
+      <c r="F58" s="209" t="s">
         <v>357</v>
       </c>
-      <c r="G58" s="305"/>
-      <c r="H58" s="305"/>
-      <c r="I58" s="306"/>
+      <c r="G58" s="210"/>
+      <c r="H58" s="210"/>
+      <c r="I58" s="211"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="25.5">
-      <c r="A59" s="273"/>
-      <c r="B59" s="257"/>
-      <c r="C59" s="259"/>
+      <c r="A59" s="242"/>
+      <c r="B59" s="236"/>
+      <c r="C59" s="238"/>
       <c r="D59" s="104" t="s">
         <v>307</v>
       </c>
       <c r="E59" s="181"/>
-      <c r="F59" s="304" t="s">
+      <c r="F59" s="209" t="s">
         <v>362</v>
       </c>
-      <c r="G59" s="307"/>
-      <c r="H59" s="307"/>
-      <c r="I59" s="308"/>
+      <c r="G59" s="212"/>
+      <c r="H59" s="212"/>
+      <c r="I59" s="213"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="273"/>
-      <c r="B60" s="257"/>
-      <c r="C60" s="259"/>
+      <c r="A60" s="242"/>
+      <c r="B60" s="236"/>
+      <c r="C60" s="238"/>
       <c r="D60" s="103" t="s">
         <v>304</v>
       </c>
       <c r="E60" s="181"/>
-      <c r="F60" s="304" t="s">
+      <c r="F60" s="209" t="s">
         <v>356</v>
       </c>
-      <c r="G60" s="307"/>
-      <c r="H60" s="307"/>
-      <c r="I60" s="308"/>
+      <c r="G60" s="212"/>
+      <c r="H60" s="212"/>
+      <c r="I60" s="213"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="38.25">
-      <c r="A61" s="273"/>
-      <c r="B61" s="256" t="s">
+      <c r="A61" s="242"/>
+      <c r="B61" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="283" t="s">
+      <c r="C61" s="246" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="132" t="s">
@@ -5627,9 +5615,9 @@
       <c r="M61" s="144"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="273"/>
-      <c r="B62" s="257"/>
-      <c r="C62" s="284"/>
+      <c r="A62" s="242"/>
+      <c r="B62" s="236"/>
+      <c r="C62" s="247"/>
       <c r="D62" s="104" t="s">
         <v>309</v>
       </c>
@@ -5637,20 +5625,20 @@
       <c r="F62" s="75">
         <v>1</v>
       </c>
-      <c r="G62" s="219" t="s">
+      <c r="G62" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H62" s="220"/>
-      <c r="I62" s="221"/>
+      <c r="H62" s="217"/>
+      <c r="I62" s="218"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="273"/>
-      <c r="B63" s="257"/>
-      <c r="C63" s="284"/>
+      <c r="A63" s="242"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="247"/>
       <c r="D63" s="114" t="s">
         <v>310</v>
       </c>
@@ -5669,9 +5657,9 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="273"/>
-      <c r="B64" s="257"/>
-      <c r="C64" s="284"/>
+      <c r="A64" s="242"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="247"/>
       <c r="D64" s="104" t="s">
         <v>363</v>
       </c>
@@ -5690,9 +5678,9 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="273"/>
-      <c r="B65" s="257"/>
-      <c r="C65" s="295"/>
+      <c r="A65" s="242"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="258"/>
       <c r="D65" s="104" t="s">
         <v>311</v>
       </c>
@@ -5711,9 +5699,9 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="273"/>
-      <c r="B66" s="257"/>
-      <c r="C66" s="295"/>
+      <c r="A66" s="242"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="258"/>
       <c r="D66" s="114" t="s">
         <v>312</v>
       </c>
@@ -5732,9 +5720,9 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="273"/>
-      <c r="B67" s="257"/>
-      <c r="C67" s="285"/>
+      <c r="A67" s="242"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="248"/>
       <c r="D67" s="114" t="s">
         <v>313</v>
       </c>
@@ -5753,9 +5741,9 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="273"/>
-      <c r="B68" s="257"/>
-      <c r="C68" s="286" t="s">
+      <c r="A68" s="242"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="274" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="133" t="s">
@@ -5779,9 +5767,9 @@
       <c r="M68" s="144"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="273"/>
-      <c r="B69" s="257"/>
-      <c r="C69" s="287"/>
+      <c r="A69" s="242"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="275"/>
       <c r="D69" s="103" t="s">
         <v>315</v>
       </c>
@@ -5789,20 +5777,20 @@
       <c r="F69" s="75">
         <v>1</v>
       </c>
-      <c r="G69" s="247" t="s">
+      <c r="G69" s="223" t="s">
         <v>352</v>
       </c>
-      <c r="H69" s="248"/>
-      <c r="I69" s="249"/>
+      <c r="H69" s="224"/>
+      <c r="I69" s="225"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="273"/>
-      <c r="B70" s="257"/>
-      <c r="C70" s="287"/>
+      <c r="A70" s="242"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="275"/>
       <c r="D70" s="104" t="s">
         <v>316</v>
       </c>
@@ -5810,18 +5798,18 @@
       <c r="F70" s="130">
         <v>1</v>
       </c>
-      <c r="G70" s="250"/>
-      <c r="H70" s="251"/>
-      <c r="I70" s="252"/>
+      <c r="G70" s="226"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="228"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="273"/>
-      <c r="B71" s="257"/>
-      <c r="C71" s="287"/>
+      <c r="A71" s="242"/>
+      <c r="B71" s="236"/>
+      <c r="C71" s="275"/>
       <c r="D71" s="104" t="s">
         <v>317</v>
       </c>
@@ -5829,18 +5817,18 @@
       <c r="F71" s="130">
         <v>1</v>
       </c>
-      <c r="G71" s="253"/>
-      <c r="H71" s="254"/>
-      <c r="I71" s="255"/>
+      <c r="G71" s="229"/>
+      <c r="H71" s="230"/>
+      <c r="I71" s="231"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="273"/>
-      <c r="B72" s="257"/>
-      <c r="C72" s="258" t="s">
+      <c r="A72" s="242"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="237" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="134" t="s">
@@ -5864,9 +5852,9 @@
       <c r="M72" s="144"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="273"/>
-      <c r="B73" s="257"/>
-      <c r="C73" s="259"/>
+      <c r="A73" s="242"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="238"/>
       <c r="D73" s="104" t="s">
         <v>319</v>
       </c>
@@ -5874,20 +5862,20 @@
       <c r="F73" s="130">
         <v>1</v>
       </c>
-      <c r="G73" s="247" t="s">
+      <c r="G73" s="223" t="s">
         <v>368</v>
       </c>
-      <c r="H73" s="248"/>
-      <c r="I73" s="249"/>
+      <c r="H73" s="224"/>
+      <c r="I73" s="225"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="273"/>
-      <c r="B74" s="257"/>
-      <c r="C74" s="259"/>
+      <c r="A74" s="242"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="238"/>
       <c r="D74" s="114" t="s">
         <v>312</v>
       </c>
@@ -5895,18 +5883,18 @@
       <c r="F74" s="130">
         <v>1</v>
       </c>
-      <c r="G74" s="250"/>
-      <c r="H74" s="251"/>
-      <c r="I74" s="252"/>
+      <c r="G74" s="226"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="228"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="25.5">
-      <c r="A75" s="274"/>
-      <c r="B75" s="257"/>
-      <c r="C75" s="259"/>
+      <c r="A75" s="249"/>
+      <c r="B75" s="236"/>
+      <c r="C75" s="238"/>
       <c r="D75" s="104" t="s">
         <v>320</v>
       </c>
@@ -5914,22 +5902,22 @@
       <c r="F75" s="130">
         <v>1</v>
       </c>
-      <c r="G75" s="253"/>
-      <c r="H75" s="254"/>
-      <c r="I75" s="255"/>
+      <c r="G75" s="229"/>
+      <c r="H75" s="230"/>
+      <c r="I75" s="231"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="272" t="s">
+      <c r="A76" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="256" t="s">
+      <c r="B76" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="258" t="s">
+      <c r="C76" s="237" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="133" t="s">
@@ -5953,9 +5941,9 @@
       <c r="M76" s="144"/>
     </row>
     <row r="77" spans="1:13" ht="25.5">
-      <c r="A77" s="273"/>
-      <c r="B77" s="257"/>
-      <c r="C77" s="259"/>
+      <c r="A77" s="242"/>
+      <c r="B77" s="236"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="116" t="s">
         <v>193</v>
       </c>
@@ -5974,9 +5962,9 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="25.5">
-      <c r="A78" s="273"/>
-      <c r="B78" s="257"/>
-      <c r="C78" s="259"/>
+      <c r="A78" s="242"/>
+      <c r="B78" s="236"/>
+      <c r="C78" s="238"/>
       <c r="D78" s="116" t="s">
         <v>103</v>
       </c>
@@ -5995,9 +5983,9 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="15.75">
-      <c r="A79" s="273"/>
-      <c r="B79" s="257"/>
-      <c r="C79" s="259"/>
+      <c r="A79" s="242"/>
+      <c r="B79" s="236"/>
+      <c r="C79" s="238"/>
       <c r="D79" s="116" t="s">
         <v>104</v>
       </c>
@@ -6016,9 +6004,9 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" ht="15.75">
-      <c r="A80" s="273"/>
-      <c r="B80" s="257"/>
-      <c r="C80" s="258" t="s">
+      <c r="A80" s="242"/>
+      <c r="B80" s="236"/>
+      <c r="C80" s="237" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="133" t="s">
@@ -6042,9 +6030,9 @@
       <c r="M80" s="93"/>
     </row>
     <row r="81" spans="1:13" ht="25.5">
-      <c r="A81" s="273"/>
-      <c r="B81" s="257"/>
-      <c r="C81" s="259"/>
+      <c r="A81" s="242"/>
+      <c r="B81" s="236"/>
+      <c r="C81" s="238"/>
       <c r="D81" s="116" t="s">
         <v>59</v>
       </c>
@@ -6063,9 +6051,9 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="25.5">
-      <c r="A82" s="273"/>
-      <c r="B82" s="257"/>
-      <c r="C82" s="259"/>
+      <c r="A82" s="242"/>
+      <c r="B82" s="236"/>
+      <c r="C82" s="238"/>
       <c r="D82" s="116" t="s">
         <v>106</v>
       </c>
@@ -6073,20 +6061,20 @@
       <c r="F82" s="130">
         <v>1</v>
       </c>
-      <c r="G82" s="237" t="s">
+      <c r="G82" s="298" t="s">
         <v>369</v>
       </c>
-      <c r="H82" s="238"/>
-      <c r="I82" s="239"/>
+      <c r="H82" s="299"/>
+      <c r="I82" s="300"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="90"/>
     </row>
     <row r="83" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A83" s="273"/>
-      <c r="B83" s="257"/>
-      <c r="C83" s="259"/>
+      <c r="A83" s="242"/>
+      <c r="B83" s="236"/>
+      <c r="C83" s="238"/>
       <c r="D83" s="116" t="s">
         <v>107</v>
       </c>
@@ -6105,9 +6093,9 @@
       <c r="M83" s="90"/>
     </row>
     <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="273"/>
-      <c r="B84" s="257"/>
-      <c r="C84" s="278" t="s">
+      <c r="A84" s="242"/>
+      <c r="B84" s="236"/>
+      <c r="C84" s="239" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="135" t="s">
@@ -6131,9 +6119,9 @@
       <c r="M84" s="144"/>
     </row>
     <row r="85" spans="1:13" ht="39" customHeight="1">
-      <c r="A85" s="273"/>
-      <c r="B85" s="257"/>
-      <c r="C85" s="279"/>
+      <c r="A85" s="242"/>
+      <c r="B85" s="236"/>
+      <c r="C85" s="240"/>
       <c r="D85" s="116" t="s">
         <v>326</v>
       </c>
@@ -6152,9 +6140,9 @@
       <c r="M85" s="90"/>
     </row>
     <row r="86" spans="1:13" ht="25.5">
-      <c r="A86" s="273"/>
-      <c r="B86" s="257"/>
-      <c r="C86" s="279"/>
+      <c r="A86" s="242"/>
+      <c r="B86" s="236"/>
+      <c r="C86" s="240"/>
       <c r="D86" s="116" t="s">
         <v>195</v>
       </c>
@@ -6173,9 +6161,9 @@
       <c r="M86" s="90"/>
     </row>
     <row r="87" spans="1:13" ht="25.5">
-      <c r="A87" s="273"/>
-      <c r="B87" s="257"/>
-      <c r="C87" s="279"/>
+      <c r="A87" s="242"/>
+      <c r="B87" s="236"/>
+      <c r="C87" s="240"/>
       <c r="D87" s="104" t="s">
         <v>196</v>
       </c>
@@ -6194,9 +6182,9 @@
       <c r="M87" s="90"/>
     </row>
     <row r="88" spans="1:13" ht="38.25">
-      <c r="A88" s="273"/>
-      <c r="B88" s="257"/>
-      <c r="C88" s="279"/>
+      <c r="A88" s="242"/>
+      <c r="B88" s="236"/>
+      <c r="C88" s="240"/>
       <c r="D88" s="114" t="s">
         <v>58</v>
       </c>
@@ -6204,20 +6192,20 @@
       <c r="F88" s="75">
         <v>1</v>
       </c>
-      <c r="G88" s="210" t="s">
+      <c r="G88" s="279" t="s">
         <v>369</v>
       </c>
-      <c r="H88" s="240"/>
-      <c r="I88" s="241"/>
+      <c r="H88" s="301"/>
+      <c r="I88" s="302"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="90"/>
     </row>
     <row r="89" spans="1:13" ht="25.5">
-      <c r="A89" s="273"/>
-      <c r="B89" s="257"/>
-      <c r="C89" s="279"/>
+      <c r="A89" s="242"/>
+      <c r="B89" s="236"/>
+      <c r="C89" s="240"/>
       <c r="D89" s="104" t="s">
         <v>197</v>
       </c>
@@ -6225,22 +6213,22 @@
       <c r="F89" s="75">
         <v>1</v>
       </c>
-      <c r="G89" s="242"/>
-      <c r="H89" s="243"/>
-      <c r="I89" s="244"/>
+      <c r="G89" s="303"/>
+      <c r="H89" s="304"/>
+      <c r="I89" s="305"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="90"/>
     </row>
     <row r="90" spans="1:13" ht="25.5">
-      <c r="A90" s="272" t="s">
+      <c r="A90" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="256" t="s">
+      <c r="B90" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="278" t="s">
+      <c r="C90" s="239" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="134" t="s">
@@ -6264,9 +6252,9 @@
       <c r="M90" s="144"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="273"/>
-      <c r="B91" s="257"/>
-      <c r="C91" s="279"/>
+      <c r="A91" s="242"/>
+      <c r="B91" s="236"/>
+      <c r="C91" s="240"/>
       <c r="D91" s="114" t="s">
         <v>110</v>
       </c>
@@ -6274,20 +6262,20 @@
       <c r="F91" s="75">
         <v>1</v>
       </c>
-      <c r="G91" s="219" t="s">
+      <c r="G91" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H91" s="220"/>
-      <c r="I91" s="221"/>
+      <c r="H91" s="217"/>
+      <c r="I91" s="218"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="90"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A92" s="273"/>
-      <c r="B92" s="257"/>
-      <c r="C92" s="279"/>
+      <c r="A92" s="242"/>
+      <c r="B92" s="236"/>
+      <c r="C92" s="240"/>
       <c r="D92" s="114" t="s">
         <v>198</v>
       </c>
@@ -6295,20 +6283,20 @@
       <c r="F92" s="75">
         <v>1</v>
       </c>
-      <c r="G92" s="219" t="s">
+      <c r="G92" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="H92" s="309"/>
-      <c r="I92" s="310"/>
+      <c r="H92" s="215"/>
+      <c r="I92" s="216"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="90"/>
     </row>
     <row r="93" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A93" s="273"/>
-      <c r="B93" s="257"/>
-      <c r="C93" s="279"/>
+      <c r="A93" s="242"/>
+      <c r="B93" s="236"/>
+      <c r="C93" s="240"/>
       <c r="D93" s="114" t="s">
         <v>60</v>
       </c>
@@ -6327,9 +6315,9 @@
       <c r="M93" s="90"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="273"/>
-      <c r="B94" s="257"/>
-      <c r="C94" s="278" t="s">
+      <c r="A94" s="242"/>
+      <c r="B94" s="236"/>
+      <c r="C94" s="239" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="134" t="s">
@@ -6353,9 +6341,9 @@
       <c r="M94" s="144"/>
     </row>
     <row r="95" spans="1:13" ht="25.5">
-      <c r="A95" s="273"/>
-      <c r="B95" s="257"/>
-      <c r="C95" s="279"/>
+      <c r="A95" s="242"/>
+      <c r="B95" s="236"/>
+      <c r="C95" s="240"/>
       <c r="D95" s="114" t="s">
         <v>200</v>
       </c>
@@ -6363,20 +6351,20 @@
       <c r="F95" s="75">
         <v>1</v>
       </c>
-      <c r="G95" s="219" t="s">
+      <c r="G95" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H95" s="220"/>
-      <c r="I95" s="221"/>
+      <c r="H95" s="217"/>
+      <c r="I95" s="218"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="90"/>
     </row>
     <row r="96" spans="1:13" ht="24" customHeight="1">
-      <c r="A96" s="273"/>
-      <c r="B96" s="257"/>
-      <c r="C96" s="279"/>
+      <c r="A96" s="242"/>
+      <c r="B96" s="236"/>
+      <c r="C96" s="240"/>
       <c r="D96" s="114" t="s">
         <v>201</v>
       </c>
@@ -6395,28 +6383,28 @@
       <c r="M96" s="90"/>
     </row>
     <row r="97" spans="1:13" ht="25.5">
-      <c r="A97" s="273"/>
-      <c r="B97" s="257"/>
-      <c r="C97" s="279"/>
+      <c r="A97" s="242"/>
+      <c r="B97" s="236"/>
+      <c r="C97" s="240"/>
       <c r="D97" s="114" t="s">
         <v>202</v>
       </c>
       <c r="E97" s="181"/>
       <c r="F97" s="181"/>
-      <c r="G97" s="307" t="s">
+      <c r="G97" s="212" t="s">
         <v>283</v>
       </c>
-      <c r="H97" s="307"/>
-      <c r="I97" s="308"/>
+      <c r="H97" s="212"/>
+      <c r="I97" s="213"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="90"/>
     </row>
     <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="273"/>
-      <c r="B98" s="257"/>
-      <c r="C98" s="278" t="s">
+      <c r="A98" s="242"/>
+      <c r="B98" s="236"/>
+      <c r="C98" s="239" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="134" t="s">
@@ -6440,9 +6428,9 @@
       <c r="M98" s="144"/>
     </row>
     <row r="99" spans="1:13" ht="25.5">
-      <c r="A99" s="273"/>
-      <c r="B99" s="257"/>
-      <c r="C99" s="279"/>
+      <c r="A99" s="242"/>
+      <c r="B99" s="236"/>
+      <c r="C99" s="240"/>
       <c r="D99" s="114" t="s">
         <v>61</v>
       </c>
@@ -6450,20 +6438,20 @@
       <c r="F99" s="75">
         <v>1</v>
       </c>
-      <c r="G99" s="219" t="s">
+      <c r="G99" s="214" t="s">
         <v>349</v>
       </c>
-      <c r="H99" s="220"/>
-      <c r="I99" s="221"/>
+      <c r="H99" s="217"/>
+      <c r="I99" s="218"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="90"/>
     </row>
     <row r="100" spans="1:13" ht="25.5">
-      <c r="A100" s="273"/>
-      <c r="B100" s="257"/>
-      <c r="C100" s="279"/>
+      <c r="A100" s="242"/>
+      <c r="B100" s="236"/>
+      <c r="C100" s="240"/>
       <c r="D100" s="114" t="s">
         <v>62</v>
       </c>
@@ -6471,20 +6459,20 @@
       <c r="F100" s="75">
         <v>1</v>
       </c>
-      <c r="G100" s="219" t="s">
+      <c r="G100" s="214" t="s">
         <v>358</v>
       </c>
-      <c r="H100" s="309"/>
-      <c r="I100" s="310"/>
+      <c r="H100" s="215"/>
+      <c r="I100" s="216"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="90"/>
     </row>
     <row r="101" spans="1:13" ht="38.25">
-      <c r="A101" s="273"/>
-      <c r="B101" s="257"/>
-      <c r="C101" s="279"/>
+      <c r="A101" s="242"/>
+      <c r="B101" s="236"/>
+      <c r="C101" s="240"/>
       <c r="D101" s="114" t="s">
         <v>63</v>
       </c>
@@ -6503,9 +6491,9 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="51">
-      <c r="A102" s="273"/>
-      <c r="B102" s="257"/>
-      <c r="C102" s="278" t="s">
+      <c r="A102" s="242"/>
+      <c r="B102" s="236"/>
+      <c r="C102" s="239" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="134" t="s">
@@ -6529,9 +6517,9 @@
       <c r="M102" s="144"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="273"/>
-      <c r="B103" s="257"/>
-      <c r="C103" s="279"/>
+      <c r="A103" s="242"/>
+      <c r="B103" s="236"/>
+      <c r="C103" s="240"/>
       <c r="D103" s="114" t="s">
         <v>204</v>
       </c>
@@ -6550,45 +6538,45 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="25.5">
-      <c r="A104" s="273"/>
-      <c r="B104" s="257"/>
-      <c r="C104" s="279"/>
+      <c r="A104" s="242"/>
+      <c r="B104" s="236"/>
+      <c r="C104" s="240"/>
       <c r="D104" s="114" t="s">
         <v>205</v>
       </c>
       <c r="E104" s="184"/>
       <c r="F104" s="184"/>
-      <c r="G104" s="231" t="s">
+      <c r="G104" s="297" t="s">
         <v>351</v>
       </c>
-      <c r="H104" s="226"/>
-      <c r="I104" s="227"/>
+      <c r="H104" s="292"/>
+      <c r="I104" s="293"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="90"/>
     </row>
     <row r="105" spans="1:13" ht="25.5">
-      <c r="A105" s="273"/>
-      <c r="B105" s="257"/>
-      <c r="C105" s="279"/>
+      <c r="A105" s="242"/>
+      <c r="B105" s="236"/>
+      <c r="C105" s="240"/>
       <c r="D105" s="114" t="s">
         <v>206</v>
       </c>
       <c r="E105" s="184"/>
       <c r="F105" s="184"/>
-      <c r="G105" s="228"/>
-      <c r="H105" s="229"/>
-      <c r="I105" s="230"/>
+      <c r="G105" s="294"/>
+      <c r="H105" s="295"/>
+      <c r="I105" s="296"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="90"/>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="273"/>
-      <c r="B106" s="257"/>
-      <c r="C106" s="258" t="s">
+      <c r="A106" s="242"/>
+      <c r="B106" s="236"/>
+      <c r="C106" s="237" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="133" t="s">
@@ -6612,9 +6600,9 @@
       <c r="M106" s="144"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="273"/>
-      <c r="B107" s="257"/>
-      <c r="C107" s="259"/>
+      <c r="A107" s="242"/>
+      <c r="B107" s="236"/>
+      <c r="C107" s="238"/>
       <c r="D107" s="116" t="s">
         <v>321</v>
       </c>
@@ -6633,9 +6621,9 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="273"/>
-      <c r="B108" s="257"/>
-      <c r="C108" s="259"/>
+      <c r="A108" s="242"/>
+      <c r="B108" s="236"/>
+      <c r="C108" s="238"/>
       <c r="D108" s="116" t="s">
         <v>64</v>
       </c>
@@ -6654,9 +6642,9 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="25.5">
-      <c r="A109" s="273"/>
-      <c r="B109" s="257"/>
-      <c r="C109" s="259"/>
+      <c r="A109" s="242"/>
+      <c r="B109" s="236"/>
+      <c r="C109" s="238"/>
       <c r="D109" s="116" t="s">
         <v>113</v>
       </c>
@@ -6675,9 +6663,9 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="38.25">
-      <c r="A110" s="273"/>
-      <c r="B110" s="257"/>
-      <c r="C110" s="258" t="s">
+      <c r="A110" s="242"/>
+      <c r="B110" s="236"/>
+      <c r="C110" s="237" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="134" t="s">
@@ -6699,9 +6687,9 @@
       <c r="M110" s="144"/>
     </row>
     <row r="111" spans="1:13" ht="38.25">
-      <c r="A111" s="273"/>
-      <c r="B111" s="257"/>
-      <c r="C111" s="259"/>
+      <c r="A111" s="242"/>
+      <c r="B111" s="236"/>
+      <c r="C111" s="238"/>
       <c r="D111" s="104" t="s">
         <v>208</v>
       </c>
@@ -6709,20 +6697,20 @@
       <c r="F111" s="75">
         <v>0.1</v>
       </c>
-      <c r="G111" s="260" t="s">
+      <c r="G111" s="259" t="s">
         <v>350</v>
       </c>
-      <c r="H111" s="261"/>
-      <c r="I111" s="262"/>
+      <c r="H111" s="260"/>
+      <c r="I111" s="261"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="38.25">
-      <c r="A112" s="273"/>
-      <c r="B112" s="257"/>
-      <c r="C112" s="259"/>
+      <c r="A112" s="242"/>
+      <c r="B112" s="236"/>
+      <c r="C112" s="238"/>
       <c r="D112" s="104" t="s">
         <v>209</v>
       </c>
@@ -6730,18 +6718,18 @@
       <c r="F112" s="75">
         <v>0.1</v>
       </c>
-      <c r="G112" s="263"/>
-      <c r="H112" s="264"/>
-      <c r="I112" s="265"/>
+      <c r="G112" s="262"/>
+      <c r="H112" s="263"/>
+      <c r="I112" s="264"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="38.25">
-      <c r="A113" s="273"/>
-      <c r="B113" s="257"/>
-      <c r="C113" s="259"/>
+      <c r="A113" s="242"/>
+      <c r="B113" s="236"/>
+      <c r="C113" s="238"/>
       <c r="D113" s="104" t="s">
         <v>210</v>
       </c>
@@ -6749,22 +6737,22 @@
       <c r="F113" s="75">
         <v>0.1</v>
       </c>
-      <c r="G113" s="266"/>
-      <c r="H113" s="267"/>
-      <c r="I113" s="268"/>
+      <c r="G113" s="265"/>
+      <c r="H113" s="266"/>
+      <c r="I113" s="267"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="272" t="s">
+      <c r="A114" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="275" t="s">
+      <c r="B114" s="244" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="258" t="s">
+      <c r="C114" s="237" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="133" t="s">
@@ -6788,9 +6776,9 @@
       <c r="M114" s="144"/>
     </row>
     <row r="115" spans="1:13" ht="25.5">
-      <c r="A115" s="273"/>
-      <c r="B115" s="276"/>
-      <c r="C115" s="259"/>
+      <c r="A115" s="242"/>
+      <c r="B115" s="245"/>
+      <c r="C115" s="238"/>
       <c r="D115" s="116" t="s">
         <v>323</v>
       </c>
@@ -6809,9 +6797,9 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="25.5">
-      <c r="A116" s="273"/>
-      <c r="B116" s="276"/>
-      <c r="C116" s="259"/>
+      <c r="A116" s="242"/>
+      <c r="B116" s="245"/>
+      <c r="C116" s="238"/>
       <c r="D116" s="116" t="s">
         <v>211</v>
       </c>
@@ -6830,9 +6818,9 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="273"/>
-      <c r="B117" s="276"/>
-      <c r="C117" s="259"/>
+      <c r="A117" s="242"/>
+      <c r="B117" s="245"/>
+      <c r="C117" s="238"/>
       <c r="D117" s="116" t="s">
         <v>365</v>
       </c>
@@ -6851,9 +6839,9 @@
       <c r="M117" s="90"/>
     </row>
     <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="273"/>
-      <c r="B118" s="276"/>
-      <c r="C118" s="278" t="s">
+      <c r="A118" s="242"/>
+      <c r="B118" s="245"/>
+      <c r="C118" s="239" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="133" t="s">
@@ -6877,9 +6865,9 @@
       <c r="M118" s="144"/>
     </row>
     <row r="119" spans="1:13" ht="25.5">
-      <c r="A119" s="273"/>
-      <c r="B119" s="276"/>
-      <c r="C119" s="279"/>
+      <c r="A119" s="242"/>
+      <c r="B119" s="245"/>
+      <c r="C119" s="240"/>
       <c r="D119" s="118" t="s">
         <v>117</v>
       </c>
@@ -6898,9 +6886,9 @@
       <c r="M119" s="90"/>
     </row>
     <row r="120" spans="1:13" ht="15.75">
-      <c r="A120" s="273"/>
-      <c r="B120" s="276"/>
-      <c r="C120" s="279"/>
+      <c r="A120" s="242"/>
+      <c r="B120" s="245"/>
+      <c r="C120" s="240"/>
       <c r="D120" s="118" t="s">
         <v>118</v>
       </c>
@@ -6919,9 +6907,9 @@
       <c r="M120" s="90"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="273"/>
-      <c r="B121" s="276"/>
-      <c r="C121" s="279"/>
+      <c r="A121" s="242"/>
+      <c r="B121" s="245"/>
+      <c r="C121" s="240"/>
       <c r="D121" s="114" t="s">
         <v>213</v>
       </c>
@@ -6940,9 +6928,9 @@
       <c r="M121" s="90"/>
     </row>
     <row r="122" spans="1:13" ht="38.25">
-      <c r="A122" s="273"/>
-      <c r="B122" s="276"/>
-      <c r="C122" s="279"/>
+      <c r="A122" s="242"/>
+      <c r="B122" s="245"/>
+      <c r="C122" s="240"/>
       <c r="D122" s="192" t="s">
         <v>208</v>
       </c>
@@ -6961,9 +6949,9 @@
       <c r="M122" s="90"/>
     </row>
     <row r="123" spans="1:13" ht="38.25">
-      <c r="A123" s="273"/>
-      <c r="B123" s="276"/>
-      <c r="C123" s="279"/>
+      <c r="A123" s="242"/>
+      <c r="B123" s="245"/>
+      <c r="C123" s="240"/>
       <c r="D123" s="117" t="s">
         <v>209</v>
       </c>
@@ -6982,9 +6970,9 @@
       <c r="M123" s="90"/>
     </row>
     <row r="124" spans="1:13" ht="38.25">
-      <c r="A124" s="273"/>
-      <c r="B124" s="276"/>
-      <c r="C124" s="283" t="s">
+      <c r="A124" s="242"/>
+      <c r="B124" s="245"/>
+      <c r="C124" s="246" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="133" t="s">
@@ -7008,9 +6996,9 @@
       <c r="M124" s="144"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="273"/>
-      <c r="B125" s="276"/>
-      <c r="C125" s="284"/>
+      <c r="A125" s="242"/>
+      <c r="B125" s="245"/>
+      <c r="C125" s="247"/>
       <c r="D125" s="120" t="s">
         <v>215</v>
       </c>
@@ -7018,20 +7006,20 @@
       <c r="F125" s="75">
         <v>1</v>
       </c>
-      <c r="G125" s="219" t="s">
+      <c r="G125" s="214" t="s">
         <v>372</v>
       </c>
-      <c r="H125" s="245"/>
-      <c r="I125" s="246"/>
+      <c r="H125" s="271"/>
+      <c r="I125" s="272"/>
       <c r="J125" s="82"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="90"/>
     </row>
     <row r="126" spans="1:13" ht="25.5">
-      <c r="A126" s="273"/>
-      <c r="B126" s="276"/>
-      <c r="C126" s="284"/>
+      <c r="A126" s="242"/>
+      <c r="B126" s="245"/>
+      <c r="C126" s="247"/>
       <c r="D126" s="114" t="s">
         <v>216</v>
       </c>
@@ -7050,9 +7038,9 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="273"/>
-      <c r="B127" s="276"/>
-      <c r="C127" s="284"/>
+      <c r="A127" s="242"/>
+      <c r="B127" s="245"/>
+      <c r="C127" s="247"/>
       <c r="D127" s="114" t="s">
         <v>119</v>
       </c>
@@ -7071,9 +7059,9 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="38.25">
-      <c r="A128" s="273"/>
-      <c r="B128" s="276"/>
-      <c r="C128" s="285"/>
+      <c r="A128" s="242"/>
+      <c r="B128" s="245"/>
+      <c r="C128" s="248"/>
       <c r="D128" s="104" t="s">
         <v>217</v>
       </c>
@@ -7092,9 +7080,9 @@
       <c r="M128" s="90"/>
     </row>
     <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="273"/>
-      <c r="B129" s="276"/>
-      <c r="C129" s="283" t="s">
+      <c r="A129" s="242"/>
+      <c r="B129" s="245"/>
+      <c r="C129" s="246" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="145" t="s">
@@ -7118,9 +7106,9 @@
       <c r="M129" s="144"/>
     </row>
     <row r="130" spans="1:13" ht="15.75">
-      <c r="A130" s="273"/>
-      <c r="B130" s="276"/>
-      <c r="C130" s="293"/>
+      <c r="A130" s="242"/>
+      <c r="B130" s="245"/>
+      <c r="C130" s="256"/>
       <c r="D130" s="114" t="s">
         <v>345</v>
       </c>
@@ -7139,9 +7127,9 @@
       <c r="M130" s="90"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="273"/>
-      <c r="B131" s="276"/>
-      <c r="C131" s="293"/>
+      <c r="A131" s="242"/>
+      <c r="B131" s="245"/>
+      <c r="C131" s="256"/>
       <c r="D131" s="114" t="s">
         <v>220</v>
       </c>
@@ -7149,20 +7137,20 @@
       <c r="F131" s="75">
         <v>1</v>
       </c>
-      <c r="G131" s="219" t="s">
+      <c r="G131" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="H131" s="220"/>
-      <c r="I131" s="221"/>
+      <c r="H131" s="217"/>
+      <c r="I131" s="218"/>
       <c r="J131" s="83"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="90"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="273"/>
-      <c r="B132" s="276"/>
-      <c r="C132" s="293"/>
+      <c r="A132" s="242"/>
+      <c r="B132" s="245"/>
+      <c r="C132" s="256"/>
       <c r="D132" s="114" t="s">
         <v>221</v>
       </c>
@@ -7181,9 +7169,9 @@
       <c r="M132" s="90"/>
     </row>
     <row r="133" spans="1:13" ht="25.5">
-      <c r="A133" s="273"/>
-      <c r="B133" s="276"/>
-      <c r="C133" s="278" t="s">
+      <c r="A133" s="242"/>
+      <c r="B133" s="245"/>
+      <c r="C133" s="239" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="133" t="s">
@@ -7207,9 +7195,9 @@
       <c r="M133" s="144"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="273"/>
-      <c r="B134" s="276"/>
-      <c r="C134" s="279"/>
+      <c r="A134" s="242"/>
+      <c r="B134" s="245"/>
+      <c r="C134" s="240"/>
       <c r="D134" s="121" t="s">
         <v>222</v>
       </c>
@@ -7228,9 +7216,9 @@
       <c r="M134" s="90"/>
     </row>
     <row r="135" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A135" s="273"/>
-      <c r="B135" s="276"/>
-      <c r="C135" s="279"/>
+      <c r="A135" s="242"/>
+      <c r="B135" s="245"/>
+      <c r="C135" s="240"/>
       <c r="D135" s="121" t="s">
         <v>366</v>
       </c>
@@ -7249,9 +7237,9 @@
       <c r="M135" s="90"/>
     </row>
     <row r="136" spans="1:13" ht="25.5">
-      <c r="A136" s="273"/>
-      <c r="B136" s="276"/>
-      <c r="C136" s="279"/>
+      <c r="A136" s="242"/>
+      <c r="B136" s="245"/>
+      <c r="C136" s="240"/>
       <c r="D136" s="121" t="s">
         <v>224</v>
       </c>
@@ -7269,10 +7257,10 @@
       <c r="L136" s="5"/>
       <c r="M136" s="90"/>
     </row>
-    <row r="137" spans="1:13" ht="25.5">
-      <c r="A137" s="273"/>
-      <c r="B137" s="276"/>
-      <c r="C137" s="280" t="s">
+    <row r="137" spans="1:13" ht="38.25">
+      <c r="A137" s="242"/>
+      <c r="B137" s="245"/>
+      <c r="C137" s="251" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="136" t="s">
@@ -7296,9 +7284,9 @@
       <c r="M137" s="144"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="273"/>
-      <c r="B138" s="276"/>
-      <c r="C138" s="281"/>
+      <c r="A138" s="242"/>
+      <c r="B138" s="245"/>
+      <c r="C138" s="252"/>
       <c r="D138" s="116" t="s">
         <v>226</v>
       </c>
@@ -7306,20 +7294,20 @@
       <c r="F138" s="131">
         <v>1</v>
       </c>
-      <c r="G138" s="219" t="s">
+      <c r="G138" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="H138" s="220"/>
-      <c r="I138" s="221"/>
+      <c r="H138" s="217"/>
+      <c r="I138" s="218"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="90"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="273"/>
-      <c r="B139" s="276"/>
-      <c r="C139" s="281"/>
+      <c r="A139" s="242"/>
+      <c r="B139" s="245"/>
+      <c r="C139" s="252"/>
       <c r="D139" s="116" t="s">
         <v>346</v>
       </c>
@@ -7338,9 +7326,9 @@
       <c r="M139" s="90"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="273"/>
-      <c r="B140" s="276"/>
-      <c r="C140" s="281"/>
+      <c r="A140" s="242"/>
+      <c r="B140" s="245"/>
+      <c r="C140" s="252"/>
       <c r="D140" s="116" t="s">
         <v>228</v>
       </c>
@@ -7359,32 +7347,32 @@
       <c r="M140" s="90"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1">
-      <c r="A141" s="273"/>
-      <c r="B141" s="276"/>
-      <c r="C141" s="282"/>
+      <c r="A141" s="242"/>
+      <c r="B141" s="245"/>
+      <c r="C141" s="253"/>
       <c r="D141" s="137" t="s">
         <v>229</v>
       </c>
       <c r="E141" s="180"/>
       <c r="F141" s="180"/>
-      <c r="G141" s="235" t="s">
+      <c r="G141" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="H141" s="235"/>
-      <c r="I141" s="236"/>
+      <c r="H141" s="219"/>
+      <c r="I141" s="220"/>
       <c r="J141" s="84"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="90"/>
     </row>
     <row r="142" spans="1:13" ht="51">
-      <c r="A142" s="294" t="s">
+      <c r="A142" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="256" t="s">
+      <c r="B142" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="258" t="s">
+      <c r="C142" s="237" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="133" t="s">
@@ -7407,10 +7395,10 @@
       <c r="L142" s="143"/>
       <c r="M142" s="144"/>
     </row>
-    <row r="143" spans="1:13" ht="127.5">
-      <c r="A143" s="294"/>
-      <c r="B143" s="288"/>
-      <c r="C143" s="259"/>
+    <row r="143" spans="1:13" ht="60">
+      <c r="A143" s="257"/>
+      <c r="B143" s="276"/>
+      <c r="C143" s="238"/>
       <c r="D143" s="120" t="s">
         <v>230</v>
       </c>
@@ -7424,20 +7412,18 @@
       <c r="H143" s="74">
         <v>0.25</v>
       </c>
-      <c r="I143" s="208" t="s">
-        <v>389</v>
+      <c r="I143" s="316" t="s">
+        <v>387</v>
       </c>
       <c r="J143" s="5"/>
-      <c r="K143" s="209" t="s">
-        <v>383</v>
-      </c>
+      <c r="K143" s="202"/>
       <c r="L143" s="5"/>
       <c r="M143" s="90"/>
     </row>
-    <row r="144" spans="1:13" ht="89.25">
-      <c r="A144" s="294"/>
-      <c r="B144" s="288"/>
-      <c r="C144" s="259"/>
+    <row r="144" spans="1:13" ht="38.25">
+      <c r="A144" s="257"/>
+      <c r="B144" s="276"/>
+      <c r="C144" s="238"/>
       <c r="D144" s="118" t="s">
         <v>65</v>
       </c>
@@ -7451,20 +7437,18 @@
       <c r="H144" s="74">
         <v>0.25</v>
       </c>
-      <c r="I144" s="208" t="s">
-        <v>390</v>
+      <c r="I144" s="319" t="s">
+        <v>384</v>
       </c>
       <c r="J144" s="84"/>
-      <c r="K144" s="209" t="s">
-        <v>384</v>
-      </c>
+      <c r="K144" s="202"/>
       <c r="L144" s="5"/>
       <c r="M144" s="90"/>
     </row>
-    <row r="145" spans="1:13" ht="89.25">
-      <c r="A145" s="294"/>
-      <c r="B145" s="288"/>
-      <c r="C145" s="259"/>
+    <row r="145" spans="1:13" ht="38.25">
+      <c r="A145" s="257"/>
+      <c r="B145" s="276"/>
+      <c r="C145" s="238"/>
       <c r="D145" s="114" t="s">
         <v>66</v>
       </c>
@@ -7478,20 +7462,18 @@
       <c r="H145" s="74">
         <v>0.25</v>
       </c>
-      <c r="I145" s="208" t="s">
-        <v>382</v>
-      </c>
-      <c r="J145" s="5"/>
-      <c r="K145" s="209" t="s">
-        <v>385</v>
-      </c>
+      <c r="I145" s="319" t="s">
+        <v>388</v>
+      </c>
+      <c r="J145" s="318"/>
+      <c r="K145" s="202"/>
       <c r="L145" s="5"/>
       <c r="M145" s="90"/>
     </row>
     <row r="146" spans="1:13" ht="221.25" customHeight="1">
-      <c r="A146" s="294"/>
-      <c r="B146" s="288"/>
-      <c r="C146" s="259"/>
+      <c r="A146" s="257"/>
+      <c r="B146" s="276"/>
+      <c r="C146" s="238"/>
       <c r="D146" s="114" t="s">
         <v>67</v>
       </c>
@@ -7505,20 +7487,18 @@
       <c r="H146" s="74">
         <v>0.25</v>
       </c>
-      <c r="I146" s="208" t="s">
-        <v>391</v>
+      <c r="I146" s="317" t="s">
+        <v>385</v>
       </c>
       <c r="J146" s="84"/>
-      <c r="K146" s="209" t="s">
-        <v>386</v>
-      </c>
+      <c r="K146" s="202"/>
       <c r="L146" s="5"/>
       <c r="M146" s="90"/>
     </row>
     <row r="147" spans="1:13" ht="38.25">
-      <c r="A147" s="294"/>
-      <c r="B147" s="288"/>
-      <c r="C147" s="258" t="s">
+      <c r="A147" s="257"/>
+      <c r="B147" s="276"/>
+      <c r="C147" s="237" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="133" t="s">
@@ -7542,9 +7522,9 @@
       <c r="M147" s="144"/>
     </row>
     <row r="148" spans="1:13" ht="48">
-      <c r="A148" s="294"/>
-      <c r="B148" s="288"/>
-      <c r="C148" s="259"/>
+      <c r="A148" s="257"/>
+      <c r="B148" s="276"/>
+      <c r="C148" s="238"/>
       <c r="D148" s="118" t="s">
         <v>124</v>
       </c>
@@ -7558,8 +7538,8 @@
       <c r="H148" s="75">
         <v>0.08</v>
       </c>
-      <c r="I148" s="202" t="s">
-        <v>387</v>
+      <c r="I148" s="320" t="s">
+        <v>382</v>
       </c>
       <c r="J148" s="84"/>
       <c r="K148" s="5"/>
@@ -7567,9 +7547,9 @@
       <c r="M148" s="90"/>
     </row>
     <row r="149" spans="1:13" ht="45" customHeight="1">
-      <c r="A149" s="294"/>
-      <c r="B149" s="288"/>
-      <c r="C149" s="259"/>
+      <c r="A149" s="257"/>
+      <c r="B149" s="276"/>
+      <c r="C149" s="238"/>
       <c r="D149" s="118" t="s">
         <v>327</v>
       </c>
@@ -7583,7 +7563,7 @@
       <c r="H149" s="75">
         <v>0.08</v>
       </c>
-      <c r="I149" s="202" t="s">
+      <c r="I149" s="320" t="s">
         <v>381</v>
       </c>
       <c r="J149" s="84"/>
@@ -7591,10 +7571,10 @@
       <c r="L149" s="5"/>
       <c r="M149" s="90"/>
     </row>
-    <row r="150" spans="1:13" ht="60">
-      <c r="A150" s="294"/>
-      <c r="B150" s="288"/>
-      <c r="C150" s="259"/>
+    <row r="150" spans="1:13" ht="72">
+      <c r="A150" s="257"/>
+      <c r="B150" s="276"/>
+      <c r="C150" s="238"/>
       <c r="D150" s="118" t="s">
         <v>125</v>
       </c>
@@ -7608,8 +7588,8 @@
       <c r="H150" s="75">
         <v>0.08</v>
       </c>
-      <c r="I150" s="203" t="s">
-        <v>388</v>
+      <c r="I150" s="321" t="s">
+        <v>383</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -7617,9 +7597,9 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" ht="38.25">
-      <c r="A151" s="294"/>
-      <c r="B151" s="288"/>
-      <c r="C151" s="258" t="s">
+      <c r="A151" s="257"/>
+      <c r="B151" s="276"/>
+      <c r="C151" s="237" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="134" t="s">
@@ -7643,9 +7623,9 @@
       <c r="M151" s="144"/>
     </row>
     <row r="152" spans="1:13" ht="38.25">
-      <c r="A152" s="294"/>
-      <c r="B152" s="288"/>
-      <c r="C152" s="259"/>
+      <c r="A152" s="257"/>
+      <c r="B152" s="276"/>
+      <c r="C152" s="238"/>
       <c r="D152" s="114" t="s">
         <v>233</v>
       </c>
@@ -7659,8 +7639,8 @@
       <c r="H152" s="75">
         <v>0.08</v>
       </c>
-      <c r="I152" s="207" t="s">
-        <v>392</v>
+      <c r="I152" s="322" t="s">
+        <v>386</v>
       </c>
       <c r="J152" s="84"/>
       <c r="K152" s="5"/>
@@ -7668,9 +7648,9 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="38.25">
-      <c r="A153" s="294"/>
-      <c r="B153" s="288"/>
-      <c r="C153" s="259"/>
+      <c r="A153" s="257"/>
+      <c r="B153" s="276"/>
+      <c r="C153" s="238"/>
       <c r="D153" s="114" t="s">
         <v>234</v>
       </c>
@@ -7684,7 +7664,7 @@
       <c r="H153" s="75">
         <v>0.08</v>
       </c>
-      <c r="I153" s="207" t="s">
+      <c r="I153" s="322" t="s">
         <v>374</v>
       </c>
       <c r="J153" s="5"/>
@@ -7693,9 +7673,9 @@
       <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13" ht="38.25">
-      <c r="A154" s="294"/>
-      <c r="B154" s="288"/>
-      <c r="C154" s="259"/>
+      <c r="A154" s="257"/>
+      <c r="B154" s="276"/>
+      <c r="C154" s="238"/>
       <c r="D154" s="114" t="s">
         <v>235</v>
       </c>
@@ -7709,7 +7689,7 @@
       <c r="H154" s="75">
         <v>0.08</v>
       </c>
-      <c r="I154" s="207" t="s">
+      <c r="I154" s="322" t="s">
         <v>375</v>
       </c>
       <c r="J154" s="5"/>
@@ -7718,9 +7698,9 @@
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="51">
-      <c r="A155" s="294"/>
-      <c r="B155" s="288"/>
-      <c r="C155" s="258" t="s">
+      <c r="A155" s="257"/>
+      <c r="B155" s="276"/>
+      <c r="C155" s="237" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="134" t="s">
@@ -7744,9 +7724,9 @@
       <c r="M155" s="144"/>
     </row>
     <row r="156" spans="1:13" ht="51">
-      <c r="A156" s="294"/>
-      <c r="B156" s="288"/>
-      <c r="C156" s="259"/>
+      <c r="A156" s="257"/>
+      <c r="B156" s="276"/>
+      <c r="C156" s="238"/>
       <c r="D156" s="116" t="s">
         <v>237</v>
       </c>
@@ -7766,9 +7746,9 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="38.25">
-      <c r="A157" s="294"/>
-      <c r="B157" s="288"/>
-      <c r="C157" s="259"/>
+      <c r="A157" s="257"/>
+      <c r="B157" s="276"/>
+      <c r="C157" s="238"/>
       <c r="D157" s="114" t="s">
         <v>238</v>
       </c>
@@ -7788,9 +7768,9 @@
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="51">
-      <c r="A158" s="294"/>
-      <c r="B158" s="288"/>
-      <c r="C158" s="259"/>
+      <c r="A158" s="257"/>
+      <c r="B158" s="276"/>
+      <c r="C158" s="238"/>
       <c r="D158" s="114" t="s">
         <v>239</v>
       </c>
@@ -7810,9 +7790,9 @@
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="25.5">
-      <c r="A159" s="294"/>
-      <c r="B159" s="288"/>
-      <c r="C159" s="258" t="s">
+      <c r="A159" s="257"/>
+      <c r="B159" s="276"/>
+      <c r="C159" s="237" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="134" t="s">
@@ -7836,9 +7816,9 @@
       <c r="M159" s="144"/>
     </row>
     <row r="160" spans="1:13" ht="25.5">
-      <c r="A160" s="294"/>
-      <c r="B160" s="288"/>
-      <c r="C160" s="259"/>
+      <c r="A160" s="257"/>
+      <c r="B160" s="276"/>
+      <c r="C160" s="238"/>
       <c r="D160" s="118" t="s">
         <v>241</v>
       </c>
@@ -7852,7 +7832,7 @@
       <c r="H160" s="75">
         <v>0.08</v>
       </c>
-      <c r="I160" s="206" t="s">
+      <c r="I160" s="323" t="s">
         <v>379</v>
       </c>
       <c r="J160" s="5"/>
@@ -7861,9 +7841,9 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:18" ht="25.5">
-      <c r="A161" s="294"/>
-      <c r="B161" s="288"/>
-      <c r="C161" s="259"/>
+      <c r="A161" s="257"/>
+      <c r="B161" s="276"/>
+      <c r="C161" s="238"/>
       <c r="D161" s="118" t="s">
         <v>242</v>
       </c>
@@ -7877,7 +7857,7 @@
       <c r="H161" s="75">
         <v>0.08</v>
       </c>
-      <c r="I161" s="207" t="s">
+      <c r="I161" s="322" t="s">
         <v>378</v>
       </c>
       <c r="J161" s="5"/>
@@ -7886,9 +7866,9 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:18" ht="36">
-      <c r="A162" s="294"/>
-      <c r="B162" s="288"/>
-      <c r="C162" s="259"/>
+      <c r="A162" s="257"/>
+      <c r="B162" s="276"/>
+      <c r="C162" s="238"/>
       <c r="D162" s="118" t="s">
         <v>243</v>
       </c>
@@ -7902,7 +7882,7 @@
       <c r="H162" s="75">
         <v>0.08</v>
       </c>
-      <c r="I162" s="207" t="s">
+      <c r="I162" s="322" t="s">
         <v>380</v>
       </c>
       <c r="J162" s="5"/>
@@ -7912,8 +7892,8 @@
     </row>
     <row r="163" spans="1:18" ht="25.5">
       <c r="A163" s="69"/>
-      <c r="B163" s="288"/>
-      <c r="C163" s="289" t="s">
+      <c r="B163" s="276"/>
+      <c r="C163" s="277" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="134" t="s">
@@ -7936,8 +7916,8 @@
     </row>
     <row r="164" spans="1:18" ht="38.25">
       <c r="A164" s="69"/>
-      <c r="B164" s="288"/>
-      <c r="C164" s="290"/>
+      <c r="B164" s="276"/>
+      <c r="C164" s="278"/>
       <c r="D164" s="116" t="s">
         <v>246</v>
       </c>
@@ -7945,11 +7925,11 @@
       <c r="F164" s="130">
         <v>1</v>
       </c>
-      <c r="G164" s="247" t="s">
+      <c r="G164" s="223" t="s">
         <v>369</v>
       </c>
-      <c r="H164" s="248"/>
-      <c r="I164" s="249"/>
+      <c r="H164" s="224"/>
+      <c r="I164" s="225"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -7957,8 +7937,8 @@
     </row>
     <row r="165" spans="1:18" ht="38.25">
       <c r="A165" s="69"/>
-      <c r="B165" s="288"/>
-      <c r="C165" s="290"/>
+      <c r="B165" s="276"/>
+      <c r="C165" s="278"/>
       <c r="D165" s="114" t="s">
         <v>247</v>
       </c>
@@ -7966,9 +7946,9 @@
       <c r="F165" s="130">
         <v>1</v>
       </c>
-      <c r="G165" s="250"/>
-      <c r="H165" s="251"/>
-      <c r="I165" s="252"/>
+      <c r="G165" s="226"/>
+      <c r="H165" s="227"/>
+      <c r="I165" s="228"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -7976,8 +7956,8 @@
     </row>
     <row r="166" spans="1:18" ht="25.5">
       <c r="A166" s="69"/>
-      <c r="B166" s="288"/>
-      <c r="C166" s="290"/>
+      <c r="B166" s="276"/>
+      <c r="C166" s="278"/>
       <c r="D166" s="114" t="s">
         <v>248</v>
       </c>
@@ -7985,22 +7965,22 @@
       <c r="F166" s="130">
         <v>1</v>
       </c>
-      <c r="G166" s="253"/>
-      <c r="H166" s="254"/>
-      <c r="I166" s="255"/>
+      <c r="G166" s="229"/>
+      <c r="H166" s="230"/>
+      <c r="I166" s="231"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="272" t="s">
+      <c r="A167" s="241" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="292" t="s">
+      <c r="B167" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="258" t="s">
+      <c r="C167" s="237" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="147" t="s">
@@ -8024,9 +8004,9 @@
       <c r="M167" s="144"/>
     </row>
     <row r="168" spans="1:18" ht="42.75">
-      <c r="A168" s="273"/>
-      <c r="B168" s="256"/>
-      <c r="C168" s="259"/>
+      <c r="A168" s="242"/>
+      <c r="B168" s="235"/>
+      <c r="C168" s="238"/>
       <c r="D168" s="148" t="s">
         <v>336</v>
       </c>
@@ -8034,20 +8014,20 @@
       <c r="F168" s="74">
         <v>1</v>
       </c>
-      <c r="G168" s="222" t="s">
+      <c r="G168" s="288" t="s">
         <v>373</v>
       </c>
-      <c r="H168" s="223"/>
-      <c r="I168" s="224"/>
+      <c r="H168" s="289"/>
+      <c r="I168" s="290"/>
       <c r="J168" s="174"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:18" ht="28.5">
-      <c r="A169" s="273"/>
-      <c r="B169" s="256"/>
-      <c r="C169" s="259"/>
+      <c r="A169" s="242"/>
+      <c r="B169" s="235"/>
+      <c r="C169" s="238"/>
       <c r="D169" s="148" t="s">
         <v>337</v>
       </c>
@@ -8069,9 +8049,9 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="273"/>
-      <c r="B170" s="256"/>
-      <c r="C170" s="259"/>
+      <c r="A170" s="242"/>
+      <c r="B170" s="235"/>
+      <c r="C170" s="238"/>
       <c r="D170" s="149" t="s">
         <v>338</v>
       </c>
@@ -8090,9 +8070,9 @@
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="273"/>
-      <c r="B171" s="256"/>
-      <c r="C171" s="280" t="s">
+      <c r="A171" s="242"/>
+      <c r="B171" s="235"/>
+      <c r="C171" s="251" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="132" t="s">
@@ -8116,9 +8096,9 @@
       <c r="M171" s="144"/>
     </row>
     <row r="172" spans="1:18" ht="25.5">
-      <c r="A172" s="273"/>
-      <c r="B172" s="256"/>
-      <c r="C172" s="281"/>
+      <c r="A172" s="242"/>
+      <c r="B172" s="235"/>
+      <c r="C172" s="252"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
@@ -8126,20 +8106,20 @@
       <c r="F172" s="75">
         <v>1</v>
       </c>
-      <c r="G172" s="219" t="s">
+      <c r="G172" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H172" s="220"/>
-      <c r="I172" s="221"/>
+      <c r="H172" s="217"/>
+      <c r="I172" s="218"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="51">
-      <c r="A173" s="273"/>
-      <c r="B173" s="256"/>
-      <c r="C173" s="281"/>
+      <c r="A173" s="242"/>
+      <c r="B173" s="235"/>
+      <c r="C173" s="252"/>
       <c r="D173" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -8148,20 +8128,20 @@
       <c r="F173" s="74">
         <v>1</v>
       </c>
-      <c r="G173" s="222" t="s">
+      <c r="G173" s="288" t="s">
         <v>367</v>
       </c>
-      <c r="H173" s="223"/>
-      <c r="I173" s="224"/>
+      <c r="H173" s="289"/>
+      <c r="I173" s="290"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18">
-      <c r="A174" s="273"/>
-      <c r="B174" s="256"/>
-      <c r="C174" s="281"/>
+      <c r="A174" s="242"/>
+      <c r="B174" s="235"/>
+      <c r="C174" s="252"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
@@ -8180,28 +8160,28 @@
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="38.25">
-      <c r="A175" s="273"/>
-      <c r="B175" s="256"/>
-      <c r="C175" s="282"/>
+      <c r="A175" s="242"/>
+      <c r="B175" s="235"/>
+      <c r="C175" s="253"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
       <c r="E175" s="180"/>
       <c r="F175" s="180"/>
-      <c r="G175" s="235" t="s">
+      <c r="G175" s="219" t="s">
         <v>283</v>
       </c>
-      <c r="H175" s="235"/>
-      <c r="I175" s="236"/>
+      <c r="H175" s="219"/>
+      <c r="I175" s="220"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="42" customHeight="1">
-      <c r="A176" s="273"/>
-      <c r="B176" s="256"/>
-      <c r="C176" s="258" t="s">
+      <c r="A176" s="242"/>
+      <c r="B176" s="235"/>
+      <c r="C176" s="237" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="134" t="s">
@@ -8225,9 +8205,9 @@
       <c r="M176" s="144"/>
     </row>
     <row r="177" spans="1:13" ht="25.5">
-      <c r="A177" s="273"/>
-      <c r="B177" s="256"/>
-      <c r="C177" s="259"/>
+      <c r="A177" s="242"/>
+      <c r="B177" s="235"/>
+      <c r="C177" s="238"/>
       <c r="D177" s="114" t="s">
         <v>129</v>
       </c>
@@ -8246,9 +8226,9 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="38.25">
-      <c r="A178" s="273"/>
-      <c r="B178" s="256"/>
-      <c r="C178" s="259"/>
+      <c r="A178" s="242"/>
+      <c r="B178" s="235"/>
+      <c r="C178" s="238"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
@@ -8267,28 +8247,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="38.25">
-      <c r="A179" s="273"/>
-      <c r="B179" s="256"/>
-      <c r="C179" s="259"/>
+      <c r="A179" s="242"/>
+      <c r="B179" s="235"/>
+      <c r="C179" s="238"/>
       <c r="D179" s="114" t="s">
         <v>256</v>
       </c>
       <c r="E179" s="181"/>
       <c r="F179" s="181"/>
-      <c r="G179" s="307" t="s">
+      <c r="G179" s="212" t="s">
         <v>282</v>
       </c>
-      <c r="H179" s="307"/>
-      <c r="I179" s="308"/>
+      <c r="H179" s="212"/>
+      <c r="I179" s="213"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" ht="38.25">
-      <c r="A180" s="273"/>
-      <c r="B180" s="256"/>
-      <c r="C180" s="278" t="s">
+      <c r="A180" s="242"/>
+      <c r="B180" s="235"/>
+      <c r="C180" s="239" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="134" t="s">
@@ -8312,9 +8292,9 @@
       <c r="M180" s="144"/>
     </row>
     <row r="181" spans="1:13" ht="51">
-      <c r="A181" s="273"/>
-      <c r="B181" s="256"/>
-      <c r="C181" s="279"/>
+      <c r="A181" s="242"/>
+      <c r="B181" s="235"/>
+      <c r="C181" s="240"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
@@ -8322,20 +8302,20 @@
       <c r="F181" s="75">
         <v>1</v>
       </c>
-      <c r="G181" s="219" t="s">
+      <c r="G181" s="214" t="s">
         <v>373</v>
       </c>
-      <c r="H181" s="220"/>
-      <c r="I181" s="221"/>
+      <c r="H181" s="217"/>
+      <c r="I181" s="218"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="273"/>
-      <c r="B182" s="256"/>
-      <c r="C182" s="279"/>
+      <c r="A182" s="242"/>
+      <c r="B182" s="235"/>
+      <c r="C182" s="240"/>
       <c r="D182" s="104" t="s">
         <v>259</v>
       </c>
@@ -8354,32 +8334,32 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="25.5">
-      <c r="A183" s="274"/>
-      <c r="B183" s="256"/>
-      <c r="C183" s="279"/>
+      <c r="A183" s="249"/>
+      <c r="B183" s="235"/>
+      <c r="C183" s="240"/>
       <c r="D183" s="114" t="s">
         <v>260</v>
       </c>
       <c r="E183" s="185"/>
       <c r="F183" s="185"/>
-      <c r="G183" s="311" t="s">
+      <c r="G183" s="221" t="s">
         <v>282</v>
       </c>
-      <c r="H183" s="311"/>
-      <c r="I183" s="312"/>
+      <c r="H183" s="221"/>
+      <c r="I183" s="222"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="272" t="s">
+      <c r="A184" s="241" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="275" t="s">
+      <c r="B184" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="278" t="s">
+      <c r="C184" s="239" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="134" t="s">
@@ -8403,9 +8383,9 @@
       <c r="M184" s="144"/>
     </row>
     <row r="185" spans="1:13" ht="15.75">
-      <c r="A185" s="273"/>
-      <c r="B185" s="276"/>
-      <c r="C185" s="279"/>
+      <c r="A185" s="242"/>
+      <c r="B185" s="245"/>
+      <c r="C185" s="240"/>
       <c r="D185" s="114" t="s">
         <v>262</v>
       </c>
@@ -8424,9 +8404,9 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="25.5">
-      <c r="A186" s="273"/>
-      <c r="B186" s="276"/>
-      <c r="C186" s="279"/>
+      <c r="A186" s="242"/>
+      <c r="B186" s="245"/>
+      <c r="C186" s="240"/>
       <c r="D186" s="114" t="s">
         <v>261</v>
       </c>
@@ -8445,28 +8425,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="25.5">
-      <c r="A187" s="273"/>
-      <c r="B187" s="276"/>
-      <c r="C187" s="279"/>
+      <c r="A187" s="242"/>
+      <c r="B187" s="245"/>
+      <c r="C187" s="240"/>
       <c r="D187" s="114" t="s">
         <v>263</v>
       </c>
       <c r="E187" s="181"/>
       <c r="F187" s="181"/>
-      <c r="G187" s="307" t="s">
+      <c r="G187" s="212" t="s">
         <v>282</v>
       </c>
-      <c r="H187" s="307"/>
-      <c r="I187" s="308"/>
+      <c r="H187" s="212"/>
+      <c r="I187" s="213"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" spans="1:13" ht="25.5">
-      <c r="A188" s="273"/>
-      <c r="B188" s="276"/>
-      <c r="C188" s="280" t="s">
+    <row r="188" spans="1:13" ht="38.25">
+      <c r="A188" s="242"/>
+      <c r="B188" s="245"/>
+      <c r="C188" s="251" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="138" t="s">
@@ -8490,9 +8470,9 @@
       <c r="M188" s="144"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="273"/>
-      <c r="B189" s="276"/>
-      <c r="C189" s="281"/>
+      <c r="A189" s="242"/>
+      <c r="B189" s="245"/>
+      <c r="C189" s="252"/>
       <c r="D189" s="104" t="s">
         <v>329</v>
       </c>
@@ -8500,20 +8480,20 @@
       <c r="F189" s="75">
         <v>1</v>
       </c>
-      <c r="G189" s="219" t="s">
+      <c r="G189" s="214" t="s">
         <v>372</v>
       </c>
-      <c r="H189" s="245"/>
-      <c r="I189" s="246"/>
+      <c r="H189" s="271"/>
+      <c r="I189" s="272"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="25.5">
-      <c r="A190" s="273"/>
-      <c r="B190" s="276"/>
-      <c r="C190" s="281"/>
+      <c r="A190" s="242"/>
+      <c r="B190" s="245"/>
+      <c r="C190" s="252"/>
       <c r="D190" s="118" t="s">
         <v>266</v>
       </c>
@@ -8521,20 +8501,20 @@
       <c r="F190" s="75">
         <v>1</v>
       </c>
-      <c r="G190" s="219" t="s">
+      <c r="G190" s="214" t="s">
         <v>373</v>
       </c>
-      <c r="H190" s="220"/>
-      <c r="I190" s="221"/>
+      <c r="H190" s="217"/>
+      <c r="I190" s="218"/>
       <c r="J190" s="79"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="25.5">
-      <c r="A191" s="273"/>
-      <c r="B191" s="276"/>
-      <c r="C191" s="281"/>
+      <c r="A191" s="242"/>
+      <c r="B191" s="245"/>
+      <c r="C191" s="252"/>
       <c r="D191" s="104" t="s">
         <v>330</v>
       </c>
@@ -8542,20 +8522,20 @@
       <c r="F191" s="75">
         <v>1</v>
       </c>
-      <c r="G191" s="219" t="s">
+      <c r="G191" s="214" t="s">
         <v>369</v>
       </c>
-      <c r="H191" s="220"/>
-      <c r="I191" s="221"/>
+      <c r="H191" s="217"/>
+      <c r="I191" s="218"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" ht="60">
-      <c r="A192" s="273"/>
-      <c r="B192" s="276"/>
-      <c r="C192" s="282"/>
+      <c r="A192" s="242"/>
+      <c r="B192" s="245"/>
+      <c r="C192" s="253"/>
       <c r="D192" s="114" t="s">
         <v>268</v>
       </c>
@@ -8569,7 +8549,7 @@
       <c r="H192" s="75">
         <v>0.11</v>
       </c>
-      <c r="I192" s="205" t="s">
+      <c r="I192" s="324" t="s">
         <v>376</v>
       </c>
       <c r="J192" s="5"/>
@@ -8578,9 +8558,9 @@
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:16" ht="25.5">
-      <c r="A193" s="273"/>
-      <c r="B193" s="276"/>
-      <c r="C193" s="278" t="s">
+      <c r="A193" s="242"/>
+      <c r="B193" s="245"/>
+      <c r="C193" s="239" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="138" t="s">
@@ -8604,9 +8584,9 @@
       <c r="M193" s="144"/>
     </row>
     <row r="194" spans="1:16" ht="25.5">
-      <c r="A194" s="273"/>
-      <c r="B194" s="276"/>
-      <c r="C194" s="279"/>
+      <c r="A194" s="242"/>
+      <c r="B194" s="245"/>
+      <c r="C194" s="240"/>
       <c r="D194" s="104" t="s">
         <v>270</v>
       </c>
@@ -8614,20 +8594,20 @@
       <c r="F194" s="75">
         <v>1</v>
       </c>
-      <c r="G194" s="219" t="s">
+      <c r="G194" s="214" t="s">
         <v>367</v>
       </c>
-      <c r="H194" s="220"/>
-      <c r="I194" s="221"/>
+      <c r="H194" s="217"/>
+      <c r="I194" s="218"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="25.5">
-      <c r="A195" s="273"/>
-      <c r="B195" s="276"/>
-      <c r="C195" s="279"/>
+      <c r="A195" s="242"/>
+      <c r="B195" s="245"/>
+      <c r="C195" s="240"/>
       <c r="D195" s="104" t="s">
         <v>271</v>
       </c>
@@ -8646,9 +8626,9 @@
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="273"/>
-      <c r="B196" s="276"/>
-      <c r="C196" s="279"/>
+      <c r="A196" s="242"/>
+      <c r="B196" s="245"/>
+      <c r="C196" s="240"/>
       <c r="D196" s="104" t="s">
         <v>272</v>
       </c>
@@ -8667,9 +8647,9 @@
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="273"/>
-      <c r="B197" s="276"/>
-      <c r="C197" s="283" t="s">
+      <c r="A197" s="242"/>
+      <c r="B197" s="245"/>
+      <c r="C197" s="246" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="134" t="s">
@@ -8693,9 +8673,9 @@
       <c r="M197" s="144"/>
     </row>
     <row r="198" spans="1:16" ht="38.25">
-      <c r="A198" s="273"/>
-      <c r="B198" s="276"/>
-      <c r="C198" s="284"/>
+      <c r="A198" s="242"/>
+      <c r="B198" s="245"/>
+      <c r="C198" s="247"/>
       <c r="D198" s="114" t="s">
         <v>274</v>
       </c>
@@ -8703,20 +8683,20 @@
       <c r="F198" s="75">
         <v>1</v>
       </c>
-      <c r="G198" s="219" t="s">
+      <c r="G198" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H198" s="220"/>
-      <c r="I198" s="221"/>
+      <c r="H198" s="217"/>
+      <c r="I198" s="218"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="36">
-      <c r="A199" s="273"/>
-      <c r="B199" s="276"/>
-      <c r="C199" s="284"/>
+      <c r="A199" s="242"/>
+      <c r="B199" s="245"/>
+      <c r="C199" s="247"/>
       <c r="D199" s="114" t="s">
         <v>275</v>
       </c>
@@ -8730,7 +8710,7 @@
       <c r="H199" s="75">
         <v>0.08</v>
       </c>
-      <c r="I199" s="204" t="s">
+      <c r="I199" s="325" t="s">
         <v>377</v>
       </c>
       <c r="J199" s="5"/>
@@ -8739,9 +8719,9 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="51">
-      <c r="A200" s="273"/>
-      <c r="B200" s="276"/>
-      <c r="C200" s="284"/>
+      <c r="A200" s="242"/>
+      <c r="B200" s="245"/>
+      <c r="C200" s="247"/>
       <c r="D200" s="104" t="s">
         <v>276</v>
       </c>
@@ -8760,9 +8740,9 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="38.25">
-      <c r="A201" s="273"/>
-      <c r="B201" s="276"/>
-      <c r="C201" s="285"/>
+      <c r="A201" s="242"/>
+      <c r="B201" s="245"/>
+      <c r="C201" s="248"/>
       <c r="D201" s="119" t="s">
         <v>277</v>
       </c>
@@ -8781,9 +8761,9 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="30" customHeight="1">
-      <c r="A202" s="273"/>
-      <c r="B202" s="276"/>
-      <c r="C202" s="258" t="s">
+      <c r="A202" s="242"/>
+      <c r="B202" s="245"/>
+      <c r="C202" s="237" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="132" t="s">
@@ -8807,9 +8787,9 @@
       <c r="M202" s="144"/>
     </row>
     <row r="203" spans="1:16" ht="51">
-      <c r="A203" s="273"/>
-      <c r="B203" s="276"/>
-      <c r="C203" s="259"/>
+      <c r="A203" s="242"/>
+      <c r="B203" s="245"/>
+      <c r="C203" s="238"/>
       <c r="D203" s="119" t="s">
         <v>279</v>
       </c>
@@ -8817,20 +8797,20 @@
       <c r="F203" s="75">
         <v>1</v>
       </c>
-      <c r="G203" s="219" t="s">
+      <c r="G203" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="H203" s="220"/>
-      <c r="I203" s="221"/>
+      <c r="H203" s="217"/>
+      <c r="I203" s="218"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="51">
-      <c r="A204" s="273"/>
-      <c r="B204" s="276"/>
-      <c r="C204" s="259"/>
+      <c r="A204" s="242"/>
+      <c r="B204" s="245"/>
+      <c r="C204" s="238"/>
       <c r="D204" s="118" t="s">
         <v>280</v>
       </c>
@@ -8838,20 +8818,20 @@
       <c r="F204" s="75">
         <v>1</v>
       </c>
-      <c r="G204" s="219" t="s">
+      <c r="G204" s="214" t="s">
         <v>369</v>
       </c>
-      <c r="H204" s="220"/>
-      <c r="I204" s="221"/>
+      <c r="H204" s="217"/>
+      <c r="I204" s="218"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="51">
-      <c r="A205" s="274"/>
-      <c r="B205" s="277"/>
-      <c r="C205" s="259"/>
+      <c r="A205" s="249"/>
+      <c r="B205" s="273"/>
+      <c r="C205" s="238"/>
       <c r="D205" s="104" t="s">
         <v>281</v>
       </c>
@@ -8870,9 +8850,9 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A206" s="270"/>
-      <c r="B206" s="270"/>
-      <c r="C206" s="269" t="s">
+      <c r="A206" s="269"/>
+      <c r="B206" s="269"/>
+      <c r="C206" s="268" t="s">
         <v>339</v>
       </c>
       <c r="D206" s="154" t="s">
@@ -8899,9 +8879,9 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A207" s="270"/>
-      <c r="B207" s="270"/>
-      <c r="C207" s="269"/>
+      <c r="A207" s="269"/>
+      <c r="B207" s="269"/>
+      <c r="C207" s="268"/>
       <c r="D207" s="182" t="s">
         <v>341</v>
       </c>
@@ -8909,11 +8889,11 @@
       <c r="F207" s="150">
         <v>1</v>
       </c>
-      <c r="G207" s="298" t="s">
+      <c r="G207" s="203" t="s">
         <v>368</v>
       </c>
-      <c r="H207" s="299"/>
-      <c r="I207" s="300"/>
+      <c r="H207" s="204"/>
+      <c r="I207" s="205"/>
       <c r="J207" s="81"/>
       <c r="K207" s="150"/>
       <c r="L207" s="150"/>
@@ -8923,9 +8903,9 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="270"/>
-      <c r="B208" s="270"/>
-      <c r="C208" s="269"/>
+      <c r="A208" s="269"/>
+      <c r="B208" s="269"/>
+      <c r="C208" s="268"/>
       <c r="D208" s="182" t="s">
         <v>342</v>
       </c>
@@ -8933,18 +8913,18 @@
       <c r="F208" s="162">
         <v>1</v>
       </c>
-      <c r="G208" s="301"/>
-      <c r="H208" s="302"/>
-      <c r="I208" s="303"/>
+      <c r="G208" s="206"/>
+      <c r="H208" s="207"/>
+      <c r="I208" s="208"/>
       <c r="J208" s="156"/>
       <c r="K208" s="157"/>
       <c r="L208" s="157"/>
       <c r="M208" s="78"/>
     </row>
     <row r="209" spans="1:13" ht="25.5">
-      <c r="A209" s="270"/>
-      <c r="B209" s="270"/>
-      <c r="C209" s="269"/>
+      <c r="A209" s="269"/>
+      <c r="B209" s="269"/>
+      <c r="C209" s="268"/>
       <c r="D209" s="182" t="s">
         <v>343</v>
       </c>
@@ -9084,27 +9064,75 @@
     <protectedRange sqref="D123" name="Rango1_3_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="114">
-    <mergeCell ref="G207:I208"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="G164:I166"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="G12:I14"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G88:I89"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G69:I71"/>
+    <mergeCell ref="G73:I75"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A184:A205"/>
+    <mergeCell ref="B184:B205"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B142:B166"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A167:A183"/>
+    <mergeCell ref="B167:B183"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C179"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="A114:A141"/>
+    <mergeCell ref="B114:B141"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A142:A162"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="B52:B60"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="C94:C97"/>
@@ -9129,75 +9157,27 @@
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A167:A183"/>
-    <mergeCell ref="B167:B183"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C179"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="A114:A141"/>
-    <mergeCell ref="B114:B141"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A142:A162"/>
-    <mergeCell ref="B61:B75"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="A90:A113"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="A184:A205"/>
-    <mergeCell ref="B184:B205"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B142:B166"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="G12:I14"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="G104:I105"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G88:I89"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G69:I71"/>
-    <mergeCell ref="G73:I75"/>
+    <mergeCell ref="G207:I208"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="G164:I166"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="G195:I195"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E34 E39 E44:E45 E48:E56 E61:E62 E68:E69 E72:E74 E76:E77 E79:E81 E84:E85 E87:E91 E93:E95 E98:E99 E102 E106:E130 E133:E139 E142 E147:E172 E176:E178 E180:E181 E184:E186 E188:E189 E193:E194 E197:E199 E202:E203">
     <cfRule type="iconSet" priority="2">
@@ -9273,36 +9253,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="319" t="s">
+      <c r="C5" s="307" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="320"/>
-      <c r="O5" s="321"/>
-      <c r="Q5" s="319" t="s">
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="308"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="308"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="309"/>
+      <c r="Q5" s="307" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="320"/>
-      <c r="S5" s="320"/>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="320"/>
-      <c r="W5" s="320"/>
-      <c r="X5" s="320"/>
-      <c r="Y5" s="320"/>
-      <c r="Z5" s="320"/>
-      <c r="AA5" s="320"/>
-      <c r="AB5" s="320"/>
-      <c r="AC5" s="321"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="308"/>
+      <c r="V5" s="308"/>
+      <c r="W5" s="308"/>
+      <c r="X5" s="308"/>
+      <c r="Y5" s="308"/>
+      <c r="Z5" s="308"/>
+      <c r="AA5" s="308"/>
+      <c r="AB5" s="308"/>
+      <c r="AC5" s="309"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -9496,7 +9476,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="286" t="s">
+      <c r="A8" s="274" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -9567,7 +9547,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="287"/>
+      <c r="A9" s="275"/>
       <c r="B9" s="103" t="s">
         <v>155</v>
       </c>
@@ -9636,7 +9616,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="287"/>
+      <c r="A10" s="275"/>
       <c r="B10" s="104" t="s">
         <v>156</v>
       </c>
@@ -9703,7 +9683,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="287"/>
+      <c r="A11" s="275"/>
       <c r="B11" s="103" t="s">
         <v>157</v>
       </c>
@@ -9771,7 +9751,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="286" t="s">
+      <c r="A12" s="274" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9841,7 +9821,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="287"/>
+      <c r="A13" s="275"/>
       <c r="B13" s="105" t="s">
         <v>158</v>
       </c>
@@ -9909,7 +9889,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="287"/>
+      <c r="A14" s="275"/>
       <c r="B14" s="105" t="s">
         <v>159</v>
       </c>
@@ -9977,7 +9957,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="287"/>
+      <c r="A15" s="275"/>
       <c r="B15" s="104" t="s">
         <v>160</v>
       </c>
@@ -10045,7 +10025,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="286" t="s">
+      <c r="A16" s="274" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -10114,7 +10094,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="287"/>
+      <c r="A17" s="275"/>
       <c r="B17" s="105" t="s">
         <v>75</v>
       </c>
@@ -10181,7 +10161,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="287"/>
+      <c r="A18" s="275"/>
       <c r="B18" s="105" t="s">
         <v>76</v>
       </c>
@@ -10248,7 +10228,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="287"/>
+      <c r="A19" s="275"/>
       <c r="B19" s="105" t="s">
         <v>77</v>
       </c>
@@ -10315,7 +10295,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="287"/>
+      <c r="A20" s="275"/>
       <c r="B20" s="105" t="s">
         <v>78</v>
       </c>
@@ -10382,7 +10362,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="38.25">
-      <c r="A21" s="313" t="s">
+      <c r="A21" s="310" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -10450,7 +10430,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="38.25">
-      <c r="A22" s="314"/>
+      <c r="A22" s="311"/>
       <c r="B22" s="106" t="s">
         <v>80</v>
       </c>
@@ -10517,7 +10497,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="51">
-      <c r="A23" s="314"/>
+      <c r="A23" s="311"/>
       <c r="B23" s="106" t="s">
         <v>81</v>
       </c>
@@ -10584,7 +10564,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="76.5">
-      <c r="A24" s="314"/>
+      <c r="A24" s="311"/>
       <c r="B24" s="106" t="s">
         <v>82</v>
       </c>
@@ -10651,7 +10631,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="38.25">
-      <c r="A25" s="314"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="106" t="s">
         <v>83</v>
       </c>
@@ -10718,7 +10698,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="296"/>
+      <c r="A26" s="243"/>
       <c r="B26" s="102" t="s">
         <v>162</v>
       </c>
@@ -10785,7 +10765,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="286" t="s">
+      <c r="A27" s="274" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10855,7 +10835,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="51">
-      <c r="A28" s="315"/>
+      <c r="A28" s="312"/>
       <c r="B28" s="107" t="s">
         <v>85</v>
       </c>
@@ -10923,7 +10903,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="25.5">
-      <c r="A29" s="315"/>
+      <c r="A29" s="312"/>
       <c r="B29" s="107" t="s">
         <v>164</v>
       </c>
@@ -10991,7 +10971,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="25.5">
-      <c r="A30" s="315"/>
+      <c r="A30" s="312"/>
       <c r="B30" s="107" t="s">
         <v>165</v>
       </c>
@@ -11059,7 +11039,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="286" t="s">
+      <c r="A31" s="274" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -11127,7 +11107,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="287"/>
+      <c r="A32" s="275"/>
       <c r="B32" s="109" t="s">
         <v>167</v>
       </c>
@@ -11193,7 +11173,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="287"/>
+      <c r="A33" s="275"/>
       <c r="B33" s="109" t="s">
         <v>86</v>
       </c>
@@ -11259,7 +11239,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="287"/>
+      <c r="A34" s="275"/>
       <c r="B34" s="109" t="s">
         <v>168</v>
       </c>
@@ -11325,7 +11305,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="89.25">
-      <c r="A35" s="313" t="s">
+      <c r="A35" s="310" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -11393,7 +11373,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="39">
-      <c r="A36" s="314"/>
+      <c r="A36" s="311"/>
       <c r="B36" s="110" t="s">
         <v>88</v>
       </c>
@@ -11459,7 +11439,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="51">
-      <c r="A37" s="314"/>
+      <c r="A37" s="311"/>
       <c r="B37" s="111" t="s">
         <v>89</v>
       </c>
@@ -11525,7 +11505,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="63.75">
-      <c r="A38" s="314"/>
+      <c r="A38" s="311"/>
       <c r="B38" s="111" t="s">
         <v>55</v>
       </c>
@@ -11591,7 +11571,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="296"/>
+      <c r="A39" s="243"/>
       <c r="B39" s="110" t="s">
         <v>90</v>
       </c>
@@ -11657,7 +11637,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="286" t="s">
+      <c r="A40" s="274" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -11725,7 +11705,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="287"/>
+      <c r="A41" s="275"/>
       <c r="B41" s="107" t="s">
         <v>56</v>
       </c>
@@ -11791,7 +11771,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="287"/>
+      <c r="A42" s="275"/>
       <c r="B42" s="107" t="s">
         <v>92</v>
       </c>
@@ -11857,7 +11837,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="287"/>
+      <c r="A43" s="275"/>
       <c r="B43" s="107" t="s">
         <v>57</v>
       </c>
@@ -11925,7 +11905,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="287"/>
+      <c r="A44" s="275"/>
       <c r="B44" s="107" t="s">
         <v>93</v>
       </c>
@@ -11993,7 +11973,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="286" t="s">
+      <c r="A45" s="274" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -12062,7 +12042,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="287"/>
+      <c r="A46" s="275"/>
       <c r="B46" s="110" t="s">
         <v>170</v>
       </c>
@@ -12130,7 +12110,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="287"/>
+      <c r="A47" s="275"/>
       <c r="B47" s="110" t="s">
         <v>171</v>
       </c>
@@ -12198,7 +12178,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="287"/>
+      <c r="A48" s="275"/>
       <c r="B48" s="111" t="s">
         <v>172</v>
       </c>
@@ -12266,7 +12246,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="274" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -12334,7 +12314,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="287"/>
+      <c r="A50" s="275"/>
       <c r="B50" s="113" t="s">
         <v>94</v>
       </c>
@@ -12400,7 +12380,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="287"/>
+      <c r="A51" s="275"/>
       <c r="B51" s="113" t="s">
         <v>95</v>
       </c>
@@ -12466,7 +12446,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="287"/>
+      <c r="A52" s="275"/>
       <c r="B52" s="113" t="s">
         <v>68</v>
       </c>
@@ -12532,7 +12512,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="286" t="s">
+      <c r="A53" s="274" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -12601,7 +12581,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="287"/>
+      <c r="A54" s="275"/>
       <c r="B54" s="112" t="s">
         <v>173</v>
       </c>
@@ -12669,7 +12649,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="287"/>
+      <c r="A55" s="275"/>
       <c r="B55" s="108" t="s">
         <v>174</v>
       </c>
@@ -12735,7 +12715,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="287"/>
+      <c r="A56" s="275"/>
       <c r="B56" s="102" t="s">
         <v>175</v>
       </c>
@@ -12801,7 +12781,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="286" t="s">
+      <c r="A57" s="274" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12871,7 +12851,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="287"/>
+      <c r="A58" s="275"/>
       <c r="B58" s="104" t="s">
         <v>177</v>
       </c>
@@ -12939,7 +12919,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="287"/>
+      <c r="A59" s="275"/>
       <c r="B59" s="104" t="s">
         <v>178</v>
       </c>
@@ -13007,7 +12987,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="287"/>
+      <c r="A60" s="275"/>
       <c r="B60" s="104" t="s">
         <v>97</v>
       </c>
@@ -13075,7 +13055,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="287"/>
+      <c r="A61" s="275"/>
       <c r="B61" s="103" t="s">
         <v>179</v>
       </c>
@@ -13143,7 +13123,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="51">
-      <c r="A62" s="313" t="s">
+      <c r="A62" s="310" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -13211,7 +13191,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="38.25">
-      <c r="A63" s="314"/>
+      <c r="A63" s="311"/>
       <c r="B63" s="104" t="s">
         <v>182</v>
       </c>
@@ -13277,7 +13257,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="25.5">
-      <c r="A64" s="314"/>
+      <c r="A64" s="311"/>
       <c r="B64" s="114" t="s">
         <v>183</v>
       </c>
@@ -13343,7 +13323,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" ht="25.5">
-      <c r="A65" s="314"/>
+      <c r="A65" s="311"/>
       <c r="B65" s="104" t="s">
         <v>184</v>
       </c>
@@ -13409,7 +13389,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="322"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="104" t="s">
         <v>185</v>
       </c>
@@ -13477,7 +13457,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="322"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="114" t="s">
         <v>186</v>
       </c>
@@ -13545,7 +13525,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="296"/>
+      <c r="A68" s="243"/>
       <c r="B68" s="114" t="s">
         <v>187</v>
       </c>
@@ -13613,7 +13593,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="286" t="s">
+      <c r="A69" s="274" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -13682,7 +13662,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="287"/>
+      <c r="A70" s="275"/>
       <c r="B70" s="115" t="s">
         <v>188</v>
       </c>
@@ -13750,7 +13730,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="287"/>
+      <c r="A71" s="275"/>
       <c r="B71" s="104" t="s">
         <v>99</v>
       </c>
@@ -13818,7 +13798,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="287"/>
+      <c r="A72" s="275"/>
       <c r="B72" s="104" t="s">
         <v>189</v>
       </c>
@@ -13886,7 +13866,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="286" t="s">
+      <c r="A73" s="274" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -13954,7 +13934,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="287"/>
+      <c r="A74" s="275"/>
       <c r="B74" s="104" t="s">
         <v>191</v>
       </c>
@@ -14020,7 +14000,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="287"/>
+      <c r="A75" s="275"/>
       <c r="B75" s="114" t="s">
         <v>186</v>
       </c>
@@ -14086,7 +14066,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="287"/>
+      <c r="A76" s="275"/>
       <c r="B76" s="104" t="s">
         <v>192</v>
       </c>
@@ -14152,7 +14132,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="286" t="s">
+      <c r="A77" s="274" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -14221,7 +14201,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="287"/>
+      <c r="A78" s="275"/>
       <c r="B78" s="116" t="s">
         <v>193</v>
       </c>
@@ -14287,7 +14267,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="287"/>
+      <c r="A79" s="275"/>
       <c r="B79" s="116" t="s">
         <v>103</v>
       </c>
@@ -14354,7 +14334,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="287"/>
+      <c r="A80" s="275"/>
       <c r="B80" s="116" t="s">
         <v>104</v>
       </c>
@@ -14422,7 +14402,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="286" t="s">
+      <c r="A81" s="274" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -14489,8 +14469,8 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="25.5">
-      <c r="A82" s="287"/>
+    <row r="82" spans="1:32" ht="38.25">
+      <c r="A82" s="275"/>
       <c r="B82" s="116" t="s">
         <v>59</v>
       </c>
@@ -14556,7 +14536,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="287"/>
+      <c r="A83" s="275"/>
       <c r="B83" s="116" t="s">
         <v>106</v>
       </c>
@@ -14623,7 +14603,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="287"/>
+      <c r="A84" s="275"/>
       <c r="B84" s="116" t="s">
         <v>107</v>
       </c>
@@ -14691,7 +14671,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="286" t="s">
+      <c r="A85" s="274" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -14760,7 +14740,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="287"/>
+      <c r="A86" s="275"/>
       <c r="B86" s="116" t="s">
         <v>108</v>
       </c>
@@ -14826,7 +14806,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="25.5">
-      <c r="A87" s="287"/>
+      <c r="A87" s="275"/>
       <c r="B87" s="116" t="s">
         <v>195</v>
       </c>
@@ -14892,7 +14872,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="287"/>
+      <c r="A88" s="275"/>
       <c r="B88" s="117" t="s">
         <v>196</v>
       </c>
@@ -14958,7 +14938,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="287"/>
+      <c r="A89" s="275"/>
       <c r="B89" s="105" t="s">
         <v>58</v>
       </c>
@@ -15024,7 +15004,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" ht="38.25">
-      <c r="A90" s="287"/>
+      <c r="A90" s="275"/>
       <c r="B90" s="117" t="s">
         <v>197</v>
       </c>
@@ -15090,7 +15070,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="286" t="s">
+      <c r="A91" s="274" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -15158,7 +15138,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="287"/>
+      <c r="A92" s="275"/>
       <c r="B92" s="114" t="s">
         <v>110</v>
       </c>
@@ -15224,7 +15204,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="287"/>
+      <c r="A93" s="275"/>
       <c r="B93" s="114" t="s">
         <v>198</v>
       </c>
@@ -15290,7 +15270,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="287"/>
+      <c r="A94" s="275"/>
       <c r="B94" s="114" t="s">
         <v>60</v>
       </c>
@@ -15356,7 +15336,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="286" t="s">
+      <c r="A95" s="274" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -15424,7 +15404,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="287"/>
+      <c r="A96" s="275"/>
       <c r="B96" s="114" t="s">
         <v>200</v>
       </c>
@@ -15490,7 +15470,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="287"/>
+      <c r="A97" s="275"/>
       <c r="B97" s="114" t="s">
         <v>201</v>
       </c>
@@ -15556,7 +15536,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="287"/>
+      <c r="A98" s="275"/>
       <c r="B98" s="114" t="s">
         <v>202</v>
       </c>
@@ -15622,7 +15602,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="286" t="s">
+      <c r="A99" s="274" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -15691,7 +15671,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="287"/>
+      <c r="A100" s="275"/>
       <c r="B100" s="114" t="s">
         <v>61</v>
       </c>
@@ -15759,7 +15739,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="287"/>
+      <c r="A101" s="275"/>
       <c r="B101" s="114" t="s">
         <v>62</v>
       </c>
@@ -15827,7 +15807,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" ht="51">
-      <c r="A102" s="287"/>
+      <c r="A102" s="275"/>
       <c r="B102" s="114" t="s">
         <v>63</v>
       </c>
@@ -15895,7 +15875,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" ht="63.75">
-      <c r="A103" s="286" t="s">
+      <c r="A103" s="274" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -15965,7 +15945,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="287"/>
+      <c r="A104" s="275"/>
       <c r="B104" s="114" t="s">
         <v>204</v>
       </c>
@@ -16033,7 +16013,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="287"/>
+      <c r="A105" s="275"/>
       <c r="B105" s="114" t="s">
         <v>205</v>
       </c>
@@ -16101,7 +16081,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="287"/>
+      <c r="A106" s="275"/>
       <c r="B106" s="114" t="s">
         <v>206</v>
       </c>
@@ -16169,7 +16149,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="286" t="s">
+      <c r="A107" s="274" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -16238,7 +16218,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="287"/>
+      <c r="A108" s="275"/>
       <c r="B108" s="116" t="s">
         <v>112</v>
       </c>
@@ -16305,7 +16285,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="287"/>
+      <c r="A109" s="275"/>
       <c r="B109" s="116" t="s">
         <v>64</v>
       </c>
@@ -16372,7 +16352,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="287"/>
+      <c r="A110" s="275"/>
       <c r="B110" s="116" t="s">
         <v>113</v>
       </c>
@@ -16439,7 +16419,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" ht="51">
-      <c r="A111" s="286" t="s">
+      <c r="A111" s="274" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -16509,7 +16489,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="287"/>
+      <c r="A112" s="275"/>
       <c r="B112" s="104" t="s">
         <v>208</v>
       </c>
@@ -16577,7 +16557,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="287"/>
+      <c r="A113" s="275"/>
       <c r="B113" s="104" t="s">
         <v>209</v>
       </c>
@@ -16645,7 +16625,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="287"/>
+      <c r="A114" s="275"/>
       <c r="B114" s="104" t="s">
         <v>210</v>
       </c>
@@ -16713,7 +16693,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="286" t="s">
+      <c r="A115" s="274" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -16783,7 +16763,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="287"/>
+      <c r="A116" s="275"/>
       <c r="B116" s="116" t="s">
         <v>115</v>
       </c>
@@ -16851,7 +16831,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="287"/>
+      <c r="A117" s="275"/>
       <c r="B117" s="116" t="s">
         <v>211</v>
       </c>
@@ -16919,7 +16899,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="287"/>
+      <c r="A118" s="275"/>
       <c r="B118" s="116" t="s">
         <v>212</v>
       </c>
@@ -16987,7 +16967,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="286" t="s">
+      <c r="A119" s="274" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -17054,7 +17034,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" ht="25.5">
-      <c r="A120" s="287"/>
+      <c r="A120" s="275"/>
       <c r="B120" s="118" t="s">
         <v>117</v>
       </c>
@@ -17122,7 +17102,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="287"/>
+      <c r="A121" s="275"/>
       <c r="B121" s="118" t="s">
         <v>118</v>
       </c>
@@ -17190,7 +17170,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="287"/>
+      <c r="A122" s="275"/>
       <c r="B122" s="114" t="s">
         <v>213</v>
       </c>
@@ -17242,7 +17222,7 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="287"/>
+      <c r="A123" s="275"/>
       <c r="B123" s="192" t="s">
         <v>208</v>
       </c>
@@ -17282,7 +17262,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="287"/>
+      <c r="A124" s="275"/>
       <c r="B124" s="117" t="s">
         <v>209</v>
       </c>
@@ -17346,7 +17326,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" ht="51">
-      <c r="A125" s="313" t="s">
+      <c r="A125" s="310" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="59" t="s">
@@ -17414,7 +17394,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" ht="51">
-      <c r="A126" s="314"/>
+      <c r="A126" s="311"/>
       <c r="B126" s="120" t="s">
         <v>215</v>
       </c>
@@ -17476,7 +17456,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" ht="25.5">
-      <c r="A127" s="314"/>
+      <c r="A127" s="311"/>
       <c r="B127" s="114" t="s">
         <v>216</v>
       </c>
@@ -17542,7 +17522,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" ht="25.5">
-      <c r="A128" s="314"/>
+      <c r="A128" s="311"/>
       <c r="B128" s="114" t="s">
         <v>119</v>
       </c>
@@ -17608,7 +17588,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="296"/>
+      <c r="A129" s="243"/>
       <c r="B129" s="104" t="s">
         <v>217</v>
       </c>
@@ -17674,7 +17654,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" ht="30">
-      <c r="A130" s="313" t="s">
+      <c r="A130" s="310" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -17742,7 +17722,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" ht="25.5">
-      <c r="A131" s="317"/>
+      <c r="A131" s="314"/>
       <c r="B131" s="114" t="s">
         <v>219</v>
       </c>
@@ -17808,7 +17788,7 @@
       </c>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="317"/>
+      <c r="A132" s="314"/>
       <c r="B132" s="114" t="s">
         <v>220</v>
       </c>
@@ -17874,7 +17854,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" ht="25.5">
-      <c r="A133" s="317"/>
+      <c r="A133" s="314"/>
       <c r="B133" s="114" t="s">
         <v>221</v>
       </c>
@@ -17940,7 +17920,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="286" t="s">
+      <c r="A134" s="274" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -18005,8 +17985,8 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="25.5">
-      <c r="A135" s="287"/>
+    <row r="135" spans="1:32" ht="38.25">
+      <c r="A135" s="275"/>
       <c r="B135" s="121" t="s">
         <v>222</v>
       </c>
@@ -18074,7 +18054,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="287"/>
+      <c r="A136" s="275"/>
       <c r="B136" s="121" t="s">
         <v>223</v>
       </c>
@@ -18142,7 +18122,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="287"/>
+      <c r="A137" s="275"/>
       <c r="B137" s="121" t="s">
         <v>224</v>
       </c>
@@ -18210,7 +18190,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" ht="60">
-      <c r="A138" s="313" t="s">
+      <c r="A138" s="310" t="s">
         <v>34</v>
       </c>
       <c r="B138" s="68" t="s">
@@ -18278,7 +18258,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" ht="42.75">
-      <c r="A139" s="314"/>
+      <c r="A139" s="311"/>
       <c r="B139" s="122" t="s">
         <v>226</v>
       </c>
@@ -18345,7 +18325,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" ht="28.5">
-      <c r="A140" s="314"/>
+      <c r="A140" s="311"/>
       <c r="B140" s="122" t="s">
         <v>227</v>
       </c>
@@ -18411,7 +18391,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" ht="28.5">
-      <c r="A141" s="314"/>
+      <c r="A141" s="311"/>
       <c r="B141" s="122" t="s">
         <v>228</v>
       </c>
@@ -18477,7 +18457,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="296"/>
+      <c r="A142" s="243"/>
       <c r="B142" s="123" t="s">
         <v>229</v>
       </c>
@@ -18543,7 +18523,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="286" t="s">
+      <c r="A143" s="274" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -18611,7 +18591,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="287"/>
+      <c r="A144" s="275"/>
       <c r="B144" s="120" t="s">
         <v>230</v>
       </c>
@@ -18677,7 +18657,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="287"/>
+      <c r="A145" s="275"/>
       <c r="B145" s="118" t="s">
         <v>65</v>
       </c>
@@ -18743,7 +18723,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="287"/>
+      <c r="A146" s="275"/>
       <c r="B146" s="114" t="s">
         <v>66</v>
       </c>
@@ -18809,7 +18789,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="287"/>
+      <c r="A147" s="275"/>
       <c r="B147" s="114" t="s">
         <v>67</v>
       </c>
@@ -18875,7 +18855,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="286" t="s">
+      <c r="A148" s="274" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -18941,7 +18921,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="287"/>
+      <c r="A149" s="275"/>
       <c r="B149" s="118" t="s">
         <v>124</v>
       </c>
@@ -19005,7 +18985,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="287"/>
+      <c r="A150" s="275"/>
       <c r="B150" s="124" t="s">
         <v>231</v>
       </c>
@@ -19072,7 +19052,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="287"/>
+      <c r="A151" s="275"/>
       <c r="B151" s="118" t="s">
         <v>125</v>
       </c>
@@ -19139,7 +19119,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="286" t="s">
+      <c r="A152" s="274" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -19207,8 +19187,8 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="51">
-      <c r="A153" s="287"/>
+    <row r="153" spans="1:32" ht="63.75">
+      <c r="A153" s="275"/>
       <c r="B153" s="114" t="s">
         <v>233</v>
       </c>
@@ -19275,7 +19255,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="287"/>
+      <c r="A154" s="275"/>
       <c r="B154" s="114" t="s">
         <v>234</v>
       </c>
@@ -19342,7 +19322,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="287"/>
+      <c r="A155" s="275"/>
       <c r="B155" s="114" t="s">
         <v>235</v>
       </c>
@@ -19409,7 +19389,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="286" t="s">
+      <c r="A156" s="274" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -19477,7 +19457,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="287"/>
+      <c r="A157" s="275"/>
       <c r="B157" s="116" t="s">
         <v>237</v>
       </c>
@@ -19544,7 +19524,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="287"/>
+      <c r="A158" s="275"/>
       <c r="B158" s="114" t="s">
         <v>238</v>
       </c>
@@ -19611,7 +19591,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="287"/>
+      <c r="A159" s="275"/>
       <c r="B159" s="114" t="s">
         <v>239</v>
       </c>
@@ -19678,7 +19658,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="286" t="s">
+      <c r="A160" s="274" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -19747,7 +19727,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="287"/>
+      <c r="A161" s="275"/>
       <c r="B161" s="118" t="s">
         <v>241</v>
       </c>
@@ -19814,7 +19794,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="287"/>
+      <c r="A162" s="275"/>
       <c r="B162" s="118" t="s">
         <v>242</v>
       </c>
@@ -19881,7 +19861,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="287"/>
+      <c r="A163" s="275"/>
       <c r="B163" s="118" t="s">
         <v>243</v>
       </c>
@@ -19948,7 +19928,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" ht="38.25">
-      <c r="A164" s="315" t="s">
+      <c r="A164" s="312" t="s">
         <v>244</v>
       </c>
       <c r="B164" s="64" t="s">
@@ -20014,7 +19994,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="316"/>
+      <c r="A165" s="315"/>
       <c r="B165" s="125" t="s">
         <v>246</v>
       </c>
@@ -20078,7 +20058,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="316"/>
+      <c r="A166" s="315"/>
       <c r="B166" s="105" t="s">
         <v>247</v>
       </c>
@@ -20145,7 +20125,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="316"/>
+      <c r="A167" s="315"/>
       <c r="B167" s="105" t="s">
         <v>248</v>
       </c>
@@ -20212,7 +20192,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="286" t="s">
+      <c r="A168" s="274" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -20278,7 +20258,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="287"/>
+      <c r="A169" s="275"/>
       <c r="B169" s="148" t="s">
         <v>336</v>
       </c>
@@ -20342,7 +20322,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="287"/>
+      <c r="A170" s="275"/>
       <c r="B170" s="148" t="s">
         <v>337</v>
       </c>
@@ -20406,7 +20386,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="287"/>
+      <c r="A171" s="275"/>
       <c r="B171" s="149" t="s">
         <v>338</v>
       </c>
@@ -20470,7 +20450,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" ht="51">
-      <c r="A172" s="313" t="s">
+      <c r="A172" s="310" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -20536,7 +20516,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" ht="38.25">
-      <c r="A173" s="314"/>
+      <c r="A173" s="311"/>
       <c r="B173" s="70" t="s">
         <v>251</v>
       </c>
@@ -20602,7 +20582,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" ht="76.5">
-      <c r="A174" s="314"/>
+      <c r="A174" s="311"/>
       <c r="B174" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -20670,7 +20650,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" ht="25.5">
-      <c r="A175" s="314"/>
+      <c r="A175" s="311"/>
       <c r="B175" s="70" t="s">
         <v>252</v>
       </c>
@@ -20738,7 +20718,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="296"/>
+      <c r="A176" s="243"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -20806,7 +20786,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="286" t="s">
+      <c r="A177" s="274" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -20872,7 +20852,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="287"/>
+      <c r="A178" s="275"/>
       <c r="B178" s="114" t="s">
         <v>129</v>
       </c>
@@ -20936,7 +20916,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="287"/>
+      <c r="A179" s="275"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -21000,7 +20980,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="287"/>
+      <c r="A180" s="275"/>
       <c r="B180" s="114" t="s">
         <v>256</v>
       </c>
@@ -21064,7 +21044,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" ht="76.5">
-      <c r="A181" s="286" t="s">
+      <c r="A181" s="274" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -21133,7 +21113,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="287"/>
+      <c r="A182" s="275"/>
       <c r="B182" s="126" t="s">
         <v>258</v>
       </c>
@@ -21197,7 +21177,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="287"/>
+      <c r="A183" s="275"/>
       <c r="B183" s="104" t="s">
         <v>259</v>
       </c>
@@ -21261,7 +21241,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="287"/>
+      <c r="A184" s="275"/>
       <c r="B184" s="105" t="s">
         <v>260</v>
       </c>
@@ -21325,7 +21305,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="286" t="s">
+      <c r="A185" s="274" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -21391,7 +21371,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="287"/>
+      <c r="A186" s="275"/>
       <c r="B186" s="114" t="s">
         <v>262</v>
       </c>
@@ -21455,7 +21435,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="287"/>
+      <c r="A187" s="275"/>
       <c r="B187" s="114" t="s">
         <v>261</v>
       </c>
@@ -21519,7 +21499,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="287"/>
+      <c r="A188" s="275"/>
       <c r="B188" s="114" t="s">
         <v>263</v>
       </c>
@@ -21586,7 +21566,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" ht="51">
-      <c r="A189" s="313" t="s">
+      <c r="A189" s="310" t="s">
         <v>45</v>
       </c>
       <c r="B189" s="71" t="s">
@@ -21652,7 +21632,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" ht="25.5">
-      <c r="A190" s="314"/>
+      <c r="A190" s="311"/>
       <c r="B190" s="104" t="s">
         <v>265</v>
       </c>
@@ -21719,7 +21699,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" ht="38.25">
-      <c r="A191" s="314"/>
+      <c r="A191" s="311"/>
       <c r="B191" s="118" t="s">
         <v>266</v>
       </c>
@@ -21783,7 +21763,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" ht="38.25">
-      <c r="A192" s="314"/>
+      <c r="A192" s="311"/>
       <c r="B192" s="104" t="s">
         <v>267</v>
       </c>
@@ -21851,7 +21831,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="296"/>
+      <c r="A193" s="243"/>
       <c r="B193" s="105" t="s">
         <v>268</v>
       </c>
@@ -21917,7 +21897,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="286" t="s">
+      <c r="A194" s="274" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -21983,7 +21963,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="287"/>
+      <c r="A195" s="275"/>
       <c r="B195" s="104" t="s">
         <v>270</v>
       </c>
@@ -22047,7 +22027,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="287"/>
+      <c r="A196" s="275"/>
       <c r="B196" s="104" t="s">
         <v>271</v>
       </c>
@@ -22111,7 +22091,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="287"/>
+      <c r="A197" s="275"/>
       <c r="B197" s="104" t="s">
         <v>272</v>
       </c>
@@ -22175,7 +22155,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" ht="38.25">
-      <c r="A198" s="313" t="s">
+      <c r="A198" s="310" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="63" t="s">
@@ -22243,7 +22223,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" ht="63.75">
-      <c r="A199" s="314"/>
+      <c r="A199" s="311"/>
       <c r="B199" s="105" t="s">
         <v>274</v>
       </c>
@@ -22309,7 +22289,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" ht="38.25">
-      <c r="A200" s="314"/>
+      <c r="A200" s="311"/>
       <c r="B200" s="105" t="s">
         <v>275</v>
       </c>
@@ -22376,7 +22356,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" ht="76.5">
-      <c r="A201" s="314"/>
+      <c r="A201" s="311"/>
       <c r="B201" s="117" t="s">
         <v>276</v>
       </c>
@@ -22442,7 +22422,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="296"/>
+      <c r="A202" s="243"/>
       <c r="B202" s="119" t="s">
         <v>277</v>
       </c>
@@ -22508,7 +22488,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="286" t="s">
+      <c r="A203" s="274" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -22576,7 +22556,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="287"/>
+      <c r="A204" s="275"/>
       <c r="B204" s="127" t="s">
         <v>279</v>
       </c>
@@ -22642,7 +22622,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="287"/>
+      <c r="A205" s="275"/>
       <c r="B205" s="118" t="s">
         <v>280</v>
       </c>
@@ -22708,7 +22688,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="287"/>
+      <c r="A206" s="275"/>
       <c r="B206" s="117" t="s">
         <v>281</v>
       </c>
@@ -22774,7 +22754,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="318" t="s">
+      <c r="A207" s="306" t="s">
         <v>339</v>
       </c>
       <c r="B207" s="154" t="s">
@@ -22838,7 +22818,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="318"/>
+      <c r="A208" s="306"/>
       <c r="B208" s="155" t="s">
         <v>341</v>
       </c>
@@ -22900,7 +22880,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="318"/>
+      <c r="A209" s="306"/>
       <c r="B209" s="155" t="s">
         <v>342</v>
       </c>
@@ -22962,7 +22942,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="318"/>
+      <c r="A210" s="306"/>
       <c r="B210" s="155" t="s">
         <v>343</v>
       </c>
@@ -23123,6 +23103,38 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -23139,38 +23151,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
